--- a/_train_3_models_data/mean_weight_balance/mean_N_balance/mean_test_df_N_balance.xlsx
+++ b/_train_3_models_data/mean_weight_balance/mean_N_balance/mean_test_df_N_balance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="598">
   <si>
     <t>window_left</t>
   </si>
@@ -37,1783 +37,1777 @@
     <t>ID</t>
   </si>
   <si>
-    <t>P01132__-1</t>
+    <t>P97792__-2</t>
+  </si>
+  <si>
+    <t>Q9Y5G3__2</t>
+  </si>
+  <si>
+    <t>O43291__1</t>
+  </si>
+  <si>
+    <t>P20702__-1</t>
+  </si>
+  <si>
+    <t>Q9Y6W8__3</t>
+  </si>
+  <si>
+    <t>Q8VHB5__-3</t>
+  </si>
+  <si>
+    <t>P78410__0</t>
+  </si>
+  <si>
+    <t>P31431__1</t>
+  </si>
+  <si>
+    <t>Q9UBV2__1</t>
+  </si>
+  <si>
+    <t>P51693__0</t>
+  </si>
+  <si>
+    <t>Q2I0M4__0</t>
+  </si>
+  <si>
+    <t>Q9UJ90__1</t>
+  </si>
+  <si>
+    <t>P54756__-2</t>
+  </si>
+  <si>
+    <t>Q8TD46__-2</t>
+  </si>
+  <si>
+    <t>P08637__1</t>
+  </si>
+  <si>
+    <t>P0DJF3__-1</t>
+  </si>
+  <si>
+    <t>Q8CI85__-3</t>
+  </si>
+  <si>
+    <t>Q6P7N7__-3</t>
+  </si>
+  <si>
+    <t>A6NGZ8__1</t>
+  </si>
+  <si>
+    <t>Q5SQ64__1</t>
+  </si>
+  <si>
+    <t>Q9H9K5__3</t>
+  </si>
+  <si>
+    <t>A0A096LP01__-1</t>
+  </si>
+  <si>
+    <t>P15529__2</t>
+  </si>
+  <si>
+    <t>O35305__1</t>
+  </si>
+  <si>
+    <t>Q9BZ76__1</t>
+  </si>
+  <si>
+    <t>Q8BIF0__1</t>
+  </si>
+  <si>
+    <t>Q60837__-2</t>
+  </si>
+  <si>
+    <t>Q6UW88__0</t>
+  </si>
+  <si>
+    <t>Q96LA5__-2</t>
+  </si>
+  <si>
+    <t>P09693__2</t>
+  </si>
+  <si>
+    <t>Q3U7U4__0</t>
+  </si>
+  <si>
+    <t>Q5T1S8__0</t>
+  </si>
+  <si>
+    <t>O60279__-1</t>
+  </si>
+  <si>
+    <t>P12074__1</t>
+  </si>
+  <si>
+    <t>Q5VZ72__2</t>
+  </si>
+  <si>
+    <t>Q8N5K1__0</t>
+  </si>
+  <si>
+    <t>Q6DFV6__-1</t>
+  </si>
+  <si>
+    <t>P25118__1</t>
+  </si>
+  <si>
+    <t>P78423__0</t>
+  </si>
+  <si>
+    <t>Q86YW5__0</t>
+  </si>
+  <si>
+    <t>Q99KG5__1</t>
+  </si>
+  <si>
+    <t>Q9UN75__-1</t>
+  </si>
+  <si>
+    <t>Q9Y3P8__1</t>
+  </si>
+  <si>
+    <t>Q8ND94__-2</t>
+  </si>
+  <si>
+    <t>P09693__1</t>
+  </si>
+  <si>
+    <t>Q14118__-1</t>
+  </si>
+  <si>
+    <t>A0A1B0GTY4__1</t>
+  </si>
+  <si>
+    <t>O43561__3</t>
+  </si>
+  <si>
+    <t>P55808__0</t>
+  </si>
+  <si>
+    <t>Q96J84__3</t>
+  </si>
+  <si>
+    <t>Q9ESG4__3</t>
+  </si>
+  <si>
+    <t>P02724__2</t>
+  </si>
+  <si>
+    <t>Q16849__-1</t>
+  </si>
+  <si>
+    <t>Q9HBG7__-1</t>
+  </si>
+  <si>
+    <t>Q8R043__1</t>
+  </si>
+  <si>
+    <t>O09111__-1</t>
+  </si>
+  <si>
+    <t>A1KXC4__1</t>
+  </si>
+  <si>
+    <t>Q96LA6__2</t>
+  </si>
+  <si>
+    <t>P08508__3</t>
+  </si>
+  <si>
+    <t>Q6PJW8__-1</t>
+  </si>
+  <si>
+    <t>Q6PDJ1__-1</t>
+  </si>
+  <si>
+    <t>Q8K064__-2</t>
+  </si>
+  <si>
+    <t>P52800__-2</t>
+  </si>
+  <si>
+    <t>Q80YF6__1</t>
+  </si>
+  <si>
+    <t>P29533__1</t>
+  </si>
+  <si>
+    <t>Q8C6Z1__0</t>
+  </si>
+  <si>
+    <t>Q6P1H6__1</t>
+  </si>
+  <si>
+    <t>A2VDJ0__-3</t>
+  </si>
+  <si>
+    <t>E9Q355__1</t>
+  </si>
+  <si>
+    <t>Q6UWM9__-1</t>
+  </si>
+  <si>
+    <t>Q8C567__0</t>
+  </si>
+  <si>
+    <t>Q9WU03__0</t>
+  </si>
+  <si>
+    <t>Q6UXZ0__1</t>
+  </si>
+  <si>
+    <t>Q9D2F7__2</t>
+  </si>
+  <si>
+    <t>Q8N386__2</t>
+  </si>
+  <si>
+    <t>P54710__2</t>
+  </si>
+  <si>
+    <t>Q8WWF3__-3</t>
+  </si>
+  <si>
+    <t>Q8VCN6__0</t>
+  </si>
+  <si>
+    <t>P25918__1</t>
+  </si>
+  <si>
+    <t>Q9HC56__2</t>
+  </si>
+  <si>
+    <t>Q3TB92__0</t>
+  </si>
+  <si>
+    <t>P19438__-2</t>
+  </si>
+  <si>
+    <t>P22680__-1</t>
+  </si>
+  <si>
+    <t>Q8TB96__0</t>
+  </si>
+  <si>
+    <t>Q92956__-1</t>
+  </si>
+  <si>
+    <t>O43506__-2</t>
+  </si>
+  <si>
+    <t>Q6PB90__-3</t>
+  </si>
+  <si>
+    <t>Q03145__2</t>
+  </si>
+  <si>
+    <t>P26951__1</t>
+  </si>
+  <si>
+    <t>Q9H4D0__2</t>
+  </si>
+  <si>
+    <t>Q9D8D0__-3</t>
+  </si>
+  <si>
+    <t>Q80YD3__3</t>
+  </si>
+  <si>
+    <t>Q8CJ26__1</t>
+  </si>
+  <si>
+    <t>Q8BH06__0</t>
+  </si>
+  <si>
+    <t>Q96NY8__-1</t>
+  </si>
+  <si>
+    <t>Q9UQC9__-3</t>
+  </si>
+  <si>
+    <t>P35968__0</t>
+  </si>
+  <si>
+    <t>A1L314__2</t>
+  </si>
+  <si>
+    <t>A8MZ97__-3</t>
+  </si>
+  <si>
+    <t>P52194__0</t>
+  </si>
+  <si>
+    <t>O60500__-1</t>
+  </si>
+  <si>
+    <t>P58682__1</t>
+  </si>
+  <si>
+    <t>O75056__2</t>
+  </si>
+  <si>
+    <t>Q9BXJ7__-2</t>
+  </si>
+  <si>
+    <t>O75121__0</t>
+  </si>
+  <si>
+    <t>P18627__-3</t>
+  </si>
+  <si>
+    <t>Q3UU67__2</t>
+  </si>
+  <si>
+    <t>Q99795__3</t>
+  </si>
+  <si>
+    <t>Q64385__-1</t>
+  </si>
+  <si>
+    <t>Q9ES57__-1</t>
+  </si>
+  <si>
+    <t>Q8CBF3__0</t>
+  </si>
+  <si>
+    <t>Q5T1S8__-2</t>
+  </si>
+  <si>
+    <t>Q9BRK3__-1</t>
+  </si>
+  <si>
+    <t>P01909__-3</t>
+  </si>
+  <si>
+    <t>Q6PFX6__-3</t>
+  </si>
+  <si>
+    <t>Q08ET2__-1</t>
+  </si>
+  <si>
+    <t>Q8NFZ8__1</t>
+  </si>
+  <si>
+    <t>Q01113__-1</t>
+  </si>
+  <si>
+    <t>A2A699__-1</t>
+  </si>
+  <si>
+    <t>Q9BY67__-1</t>
+  </si>
+  <si>
+    <t>Q6UXL0__0</t>
+  </si>
+  <si>
+    <t>P28906__-2</t>
+  </si>
+  <si>
+    <t>Q9Y561__-1</t>
+  </si>
+  <si>
+    <t>P05106__-1</t>
+  </si>
+  <si>
+    <t>P52800__1</t>
+  </si>
+  <si>
+    <t>Q02496__-2</t>
+  </si>
+  <si>
+    <t>P97484__-1</t>
+  </si>
+  <si>
+    <t>Q9P0K9__-3</t>
+  </si>
+  <si>
+    <t>Q5SZK8__3</t>
+  </si>
+  <si>
+    <t>Q9D5T0__3</t>
+  </si>
+  <si>
+    <t>Q8K4C2__0</t>
+  </si>
+  <si>
+    <t>Q9HD43__-2</t>
+  </si>
+  <si>
+    <t>Q80X80__1</t>
+  </si>
+  <si>
+    <t>Q96PX8__0</t>
+  </si>
+  <si>
+    <t>Q8NBR0__0</t>
+  </si>
+  <si>
+    <t>P13726__0</t>
+  </si>
+  <si>
+    <t>P22897__3</t>
+  </si>
+  <si>
+    <t>P20334__2</t>
+  </si>
+  <si>
+    <t>Q9Y5E4__-1</t>
+  </si>
+  <si>
+    <t>Q99650__0</t>
+  </si>
+  <si>
+    <t>Q9H3S1__0</t>
+  </si>
+  <si>
+    <t>Q5DTZ6__0</t>
   </si>
   <si>
     <t>Q9D9J7__0</t>
   </si>
   <si>
-    <t>P09758__-3</t>
-  </si>
-  <si>
-    <t>Q8K1G2__1</t>
-  </si>
-  <si>
-    <t>Q7TSA3__2</t>
-  </si>
-  <si>
-    <t>Q92854__-2</t>
-  </si>
-  <si>
-    <t>Q86YW5__0</t>
-  </si>
-  <si>
-    <t>Q96J42__2</t>
-  </si>
-  <si>
-    <t>Q6NUJ2__3</t>
-  </si>
-  <si>
-    <t>Q08351__-3</t>
-  </si>
-  <si>
-    <t>Q96PB8__2</t>
-  </si>
-  <si>
-    <t>Q922T2__-2</t>
-  </si>
-  <si>
-    <t>O75509__2</t>
-  </si>
-  <si>
-    <t>Q61809__3</t>
-  </si>
-  <si>
-    <t>E9Q7P9__-2</t>
-  </si>
-  <si>
-    <t>P07359__-2</t>
-  </si>
-  <si>
-    <t>O88824__-3</t>
-  </si>
-  <si>
-    <t>P78324__3</t>
-  </si>
-  <si>
-    <t>Q6MZM0__-3</t>
-  </si>
-  <si>
-    <t>Q8N7X8__-1</t>
-  </si>
-  <si>
-    <t>Q9GZY4__-2</t>
-  </si>
-  <si>
-    <t>Q16820__-3</t>
-  </si>
-  <si>
-    <t>Q8CBF3__-2</t>
-  </si>
-  <si>
-    <t>Q9WUP0__-2</t>
-  </si>
-  <si>
-    <t>Q9HC73__3</t>
-  </si>
-  <si>
-    <t>P15530__3</t>
-  </si>
-  <si>
-    <t>A1L314__-3</t>
-  </si>
-  <si>
-    <t>Q8C7X2__3</t>
-  </si>
-  <si>
-    <t>Q91XY5__-3</t>
-  </si>
-  <si>
-    <t>Q80ZI2__1</t>
-  </si>
-  <si>
-    <t>K7EJ46__-3</t>
-  </si>
-  <si>
-    <t>Q9WVS0__-3</t>
-  </si>
-  <si>
-    <t>O60667__0</t>
-  </si>
-  <si>
-    <t>Q3U1F9__-2</t>
-  </si>
-  <si>
-    <t>Q96F46__3</t>
-  </si>
-  <si>
-    <t>P06127__-3</t>
-  </si>
-  <si>
-    <t>Q9JHX3__0</t>
-  </si>
-  <si>
-    <t>Q6ZVL6__-1</t>
-  </si>
-  <si>
-    <t>A0A1B0GVQ0__2</t>
-  </si>
-  <si>
-    <t>Q8C160__2</t>
-  </si>
-  <si>
-    <t>Q9CYN9__1</t>
-  </si>
-  <si>
-    <t>Q8BGX3__1</t>
-  </si>
-  <si>
-    <t>P06340__3</t>
-  </si>
-  <si>
-    <t>A0A0U1RPR8__2</t>
-  </si>
-  <si>
-    <t>Q2YFS2__-2</t>
-  </si>
-  <si>
-    <t>O94826__-3</t>
-  </si>
-  <si>
-    <t>A0A0B4J1G0__1</t>
-  </si>
-  <si>
-    <t>O43506__2</t>
-  </si>
-  <si>
-    <t>Q9ESD1__-3</t>
-  </si>
-  <si>
-    <t>P51805__2</t>
-  </si>
-  <si>
-    <t>Q99665__3</t>
-  </si>
-  <si>
-    <t>P55082__3</t>
-  </si>
-  <si>
-    <t>Q6Q8B3__2</t>
-  </si>
-  <si>
-    <t>Q924X6__-3</t>
-  </si>
-  <si>
-    <t>Q14CZ8__0</t>
-  </si>
-  <si>
-    <t>Q8N3T6__1</t>
-  </si>
-  <si>
-    <t>Q9BSE4__2</t>
-  </si>
-  <si>
-    <t>P34741__-2</t>
-  </si>
-  <si>
-    <t>O15270__3</t>
-  </si>
-  <si>
-    <t>B1ATG9__-2</t>
-  </si>
-  <si>
-    <t>P52429__-3</t>
-  </si>
-  <si>
-    <t>Q02763__-2</t>
-  </si>
-  <si>
-    <t>Q3UH93__2</t>
-  </si>
-  <si>
-    <t>P56817__2</t>
-  </si>
-  <si>
-    <t>P16410__-2</t>
-  </si>
-  <si>
-    <t>Q8N6K0__3</t>
-  </si>
-  <si>
-    <t>Q61835__1</t>
-  </si>
-  <si>
-    <t>Q6DFX2__0</t>
-  </si>
-  <si>
-    <t>Q15762__3</t>
-  </si>
-  <si>
-    <t>Q9ERC8__3</t>
-  </si>
-  <si>
-    <t>P55292__-1</t>
-  </si>
-  <si>
-    <t>P13224__-1</t>
-  </si>
-  <si>
-    <t>Q8TF66__3</t>
-  </si>
-  <si>
-    <t>P05555__-3</t>
-  </si>
-  <si>
-    <t>P70424__2</t>
-  </si>
-  <si>
-    <t>Q6ZRP7__3</t>
-  </si>
-  <si>
-    <t>Q8BG84__1</t>
-  </si>
-  <si>
-    <t>Q86WI1__0</t>
-  </si>
-  <si>
-    <t>Q9D5K1__-2</t>
-  </si>
-  <si>
-    <t>Q96JA1__0</t>
-  </si>
-  <si>
-    <t>Q7Z434__3</t>
-  </si>
-  <si>
-    <t>Q80UL9__-2</t>
-  </si>
-  <si>
-    <t>O75509__0</t>
-  </si>
-  <si>
-    <t>Q5SUC9__2</t>
-  </si>
-  <si>
-    <t>Q9BSE4__3</t>
-  </si>
-  <si>
-    <t>Q7Z7M0__3</t>
-  </si>
-  <si>
-    <t>Q9EQU3__-3</t>
-  </si>
-  <si>
-    <t>Q9UK23__3</t>
-  </si>
-  <si>
-    <t>Q80XZ4__-3</t>
-  </si>
-  <si>
-    <t>A6BM72__-3</t>
-  </si>
-  <si>
-    <t>A6NMS7__-2</t>
-  </si>
-  <si>
-    <t>Q9Z0F8__3</t>
-  </si>
-  <si>
-    <t>Q9H3R2__3</t>
-  </si>
-  <si>
-    <t>Q8C5U4__2</t>
-  </si>
-  <si>
-    <t>Q92729__-3</t>
-  </si>
-  <si>
-    <t>Q9CZW5__1</t>
-  </si>
-  <si>
-    <t>Q60677__-2</t>
-  </si>
-  <si>
-    <t>Q9QZ26__3</t>
-  </si>
-  <si>
-    <t>P97952__-3</t>
-  </si>
-  <si>
-    <t>Q96JA1__3</t>
-  </si>
-  <si>
-    <t>Q5VZ72__3</t>
-  </si>
-  <si>
-    <t>Q96NI6__0</t>
-  </si>
-  <si>
-    <t>P70289__1</t>
-  </si>
-  <si>
-    <t>Q96JA1__-1</t>
-  </si>
-  <si>
-    <t>Q53EL9__-3</t>
-  </si>
-  <si>
-    <t>Q9HBT6__3</t>
-  </si>
-  <si>
-    <t>Q61851__-3</t>
-  </si>
-  <si>
-    <t>Q12836__2</t>
-  </si>
-  <si>
-    <t>Q6H3X3__-3</t>
-  </si>
-  <si>
-    <t>Q3KPI0__3</t>
-  </si>
-  <si>
-    <t>P56817__-2</t>
-  </si>
-  <si>
-    <t>Q61526__1</t>
-  </si>
-  <si>
-    <t>Q9Y5F6__-2</t>
-  </si>
-  <si>
-    <t>Q9BQ51__-1</t>
-  </si>
-  <si>
-    <t>Q16832__-3</t>
-  </si>
-  <si>
-    <t>P59034__-2</t>
-  </si>
-  <si>
-    <t>O75019__2</t>
-  </si>
-  <si>
-    <t>Q01974__3</t>
-  </si>
-  <si>
-    <t>Q86XR5__-3</t>
-  </si>
-  <si>
-    <t>Q8C8N2__-3</t>
-  </si>
-  <si>
-    <t>Q19T08__3</t>
-  </si>
-  <si>
-    <t>Q8VCL2__-3</t>
-  </si>
-  <si>
-    <t>Q9WUH7__3</t>
-  </si>
-  <si>
-    <t>Q6UY11__-3</t>
-  </si>
-  <si>
-    <t>Q13641__-3</t>
-  </si>
-  <si>
-    <t>Q8BGN6__-3</t>
-  </si>
-  <si>
-    <t>Q6UXD5__3</t>
-  </si>
-  <si>
-    <t>Q9WTM3__3</t>
-  </si>
-  <si>
-    <t>Q04592__-3</t>
-  </si>
-  <si>
-    <t>P13726__0</t>
-  </si>
-  <si>
-    <t>P23299__2</t>
-  </si>
-  <si>
-    <t>P42702__-1</t>
-  </si>
-  <si>
-    <t>Q14242__-1</t>
-  </si>
-  <si>
-    <t>Q9BYH1__3</t>
-  </si>
-  <si>
-    <t>P11912__-3</t>
-  </si>
-  <si>
-    <t>Q9JIZ0__-2</t>
-  </si>
-  <si>
-    <t>Q9D6U8__2</t>
-  </si>
-  <si>
-    <t>Q9HD87__2</t>
-  </si>
-  <si>
-    <t>Q13443__3</t>
-  </si>
-  <si>
-    <t>Q9Y336__3</t>
-  </si>
-  <si>
-    <t>P97797__-1</t>
-  </si>
-  <si>
-    <t>Q86V40__-2</t>
-  </si>
-  <si>
-    <t>Q9BXR5__-2</t>
-  </si>
-  <si>
-    <t>P31512__-2</t>
-  </si>
-  <si>
-    <t>P26012__3</t>
-  </si>
-  <si>
-    <t>Q9D4V6__2</t>
-  </si>
-  <si>
-    <t>Q9Y5F3__-3</t>
-  </si>
-  <si>
-    <t>Q99518__-2</t>
-  </si>
-  <si>
-    <t>Q64151__1</t>
-  </si>
-  <si>
-    <t>Q6PHB0__-2</t>
-  </si>
-  <si>
-    <t>P97952__2</t>
-  </si>
-  <si>
-    <t>P10321__3</t>
-  </si>
-  <si>
-    <t>Q9UBV2__-1</t>
-  </si>
-  <si>
-    <t>O70309__3</t>
-  </si>
-  <si>
-    <t>Q9H665__1</t>
-  </si>
-  <si>
-    <t>P31955__3</t>
-  </si>
-  <si>
-    <t>P21754__-3</t>
-  </si>
-  <si>
-    <t>Q8BI41__3</t>
-  </si>
-  <si>
-    <t>O60603__0</t>
-  </si>
-  <si>
-    <t>Q29983__-3</t>
-  </si>
-  <si>
-    <t>P52429__2</t>
-  </si>
-  <si>
-    <t>A0A140LHF2__-2</t>
-  </si>
-  <si>
-    <t>P01135__-2</t>
-  </si>
-  <si>
-    <t>O75051__-3</t>
-  </si>
-  <si>
-    <t>P31995__3</t>
-  </si>
-  <si>
-    <t>Q589G5__2</t>
-  </si>
-  <si>
-    <t>Q8NFY4__3</t>
-  </si>
-  <si>
-    <t>O75325__-2</t>
-  </si>
-  <si>
-    <t>Q6UXK2__2</t>
-  </si>
-  <si>
-    <t>Q75VT8__-3</t>
-  </si>
-  <si>
-    <t>P60603__1</t>
-  </si>
-  <si>
-    <t>Q8NAN2__0</t>
-  </si>
-  <si>
-    <t>Q5QNS5__-3</t>
-  </si>
-  <si>
-    <t>Q96MU8__-2</t>
-  </si>
-  <si>
-    <t>A0A096LP01__2</t>
-  </si>
-  <si>
-    <t>Q9Y6X5__-1</t>
-  </si>
-  <si>
-    <t>Q96A26__-3</t>
-  </si>
-  <si>
-    <t>A6NFA0__-2</t>
-  </si>
-  <si>
-    <t>Q8K099__2</t>
-  </si>
-  <si>
-    <t>Q9D0L7__-2</t>
-  </si>
-  <si>
-    <t>P11942__-3</t>
-  </si>
-  <si>
-    <t>Q6UXV0__0</t>
-  </si>
-  <si>
-    <t>Q86SJ2__2</t>
-  </si>
-  <si>
-    <t>Q16821__-2</t>
-  </si>
-  <si>
-    <t>P13688__-1</t>
-  </si>
-  <si>
-    <t>Q9CQH3__3</t>
-  </si>
-  <si>
-    <t>Q99M08__3</t>
-  </si>
-  <si>
-    <t>Q3UPR0__3</t>
-  </si>
-  <si>
-    <t>Q9R0N7__-1</t>
-  </si>
-  <si>
-    <t>Q8C567__0</t>
-  </si>
-  <si>
-    <t>Q9JIP3__-2</t>
-  </si>
-  <si>
-    <t>Q61982__3</t>
-  </si>
-  <si>
-    <t>P35590__0</t>
-  </si>
-  <si>
-    <t>Q8VD58__-2</t>
-  </si>
-  <si>
-    <t>Q7Z7H5__1</t>
-  </si>
-  <si>
-    <t>Q9ERC8__2</t>
-  </si>
-  <si>
-    <t>P48551__2</t>
-  </si>
-  <si>
-    <t>P49257__3</t>
-  </si>
-  <si>
-    <t>Q5R3F8__-2</t>
-  </si>
-  <si>
-    <t>Q9BQQ7__2</t>
-  </si>
-  <si>
-    <t>GQKH</t>
+    <t>Q7TSN2__1</t>
+  </si>
+  <si>
+    <t>Q9JKE2__-1</t>
+  </si>
+  <si>
+    <t>Q3UV16__-2</t>
+  </si>
+  <si>
+    <t>Q96AP7__-1</t>
+  </si>
+  <si>
+    <t>Q92673__3</t>
+  </si>
+  <si>
+    <t>P23470__1</t>
+  </si>
+  <si>
+    <t>O43184__1</t>
+  </si>
+  <si>
+    <t>P25092__2</t>
+  </si>
+  <si>
+    <t>Q96TC7__-1</t>
+  </si>
+  <si>
+    <t>A8MVS5__2</t>
+  </si>
+  <si>
+    <t>Q9CXI3__2</t>
+  </si>
+  <si>
+    <t>Q86Z14__0</t>
+  </si>
+  <si>
+    <t>O35681__1</t>
+  </si>
+  <si>
+    <t>O00391__-3</t>
+  </si>
+  <si>
+    <t>P86176__-3</t>
+  </si>
+  <si>
+    <t>Q76HL1__-1</t>
+  </si>
+  <si>
+    <t>Q9Y2H6__-1</t>
+  </si>
+  <si>
+    <t>P70289__0</t>
+  </si>
+  <si>
+    <t>Q6UXL0__-2</t>
+  </si>
+  <si>
+    <t>Q8R4Y0__1</t>
+  </si>
+  <si>
+    <t>Q13477__1</t>
+  </si>
+  <si>
+    <t>Q8K064__1</t>
+  </si>
+  <si>
+    <t>P27824__1</t>
+  </si>
+  <si>
+    <t>Q6GTX8__0</t>
+  </si>
+  <si>
+    <t>Q14943__-2</t>
+  </si>
+  <si>
+    <t>P0DP72__3</t>
+  </si>
+  <si>
+    <t>Q63961__-1</t>
+  </si>
+  <si>
+    <t>Q99075__0</t>
+  </si>
+  <si>
+    <t>C6KI89__1</t>
+  </si>
+  <si>
+    <t>Q9NTN9__2</t>
+  </si>
+  <si>
+    <t>Q3TYX2__-1</t>
+  </si>
+  <si>
+    <t>Q06481__0</t>
+  </si>
+  <si>
+    <t>P11717__-1</t>
+  </si>
+  <si>
+    <t>O60603__-1</t>
+  </si>
+  <si>
+    <t>Q8N6Y1__0</t>
+  </si>
+  <si>
+    <t>P29376__-1</t>
+  </si>
+  <si>
+    <t>Q5SZV5__0</t>
+  </si>
+  <si>
+    <t>P40967__-1</t>
+  </si>
+  <si>
+    <t>P52795__-1</t>
+  </si>
+  <si>
+    <t>Q76HP3__-1</t>
+  </si>
+  <si>
+    <t>Q96PB8__-1</t>
+  </si>
+  <si>
+    <t>P32927__-2</t>
+  </si>
+  <si>
+    <t>O95167__-1</t>
+  </si>
+  <si>
+    <t>O94933__-2</t>
+  </si>
+  <si>
+    <t>Q9NYQ8__0</t>
+  </si>
+  <si>
+    <t>P06335__2</t>
+  </si>
+  <si>
+    <t>Q01974__-2</t>
+  </si>
+  <si>
+    <t>P40259__0</t>
+  </si>
+  <si>
+    <t>Q96F46__-1</t>
+  </si>
+  <si>
+    <t>Q9JLF7__1</t>
+  </si>
+  <si>
+    <t>Q95460__2</t>
+  </si>
+  <si>
+    <t>O00453__-2</t>
+  </si>
+  <si>
+    <t>Q9D8X0__-2</t>
+  </si>
+  <si>
+    <t>Q9NY15__3</t>
+  </si>
+  <si>
+    <t>Q9UIK5__2</t>
+  </si>
+  <si>
+    <t>P15702__2</t>
+  </si>
+  <si>
+    <t>P06339__-1</t>
+  </si>
+  <si>
+    <t>PSNR</t>
+  </si>
+  <si>
+    <t>QFYL</t>
+  </si>
+  <si>
+    <t>GSKV</t>
+  </si>
+  <si>
+    <t>HNPT</t>
+  </si>
+  <si>
+    <t>KFWL</t>
+  </si>
+  <si>
+    <t>NSCF</t>
+  </si>
+  <si>
+    <t>SAQP</t>
+  </si>
+  <si>
+    <t>RTEV</t>
+  </si>
+  <si>
+    <t>GPEW</t>
+  </si>
+  <si>
+    <t>VSRE</t>
+  </si>
+  <si>
+    <t>RDLA</t>
+  </si>
+  <si>
+    <t>DDAY</t>
+  </si>
+  <si>
+    <t>DQSQ</t>
+  </si>
+  <si>
+    <t>KKSA</t>
+  </si>
+  <si>
+    <t>PPGY</t>
+  </si>
+  <si>
+    <t>LWDA</t>
+  </si>
+  <si>
+    <t>TDTG</t>
+  </si>
+  <si>
+    <t>HPKW</t>
+  </si>
+  <si>
+    <t>LPPA</t>
+  </si>
+  <si>
+    <t>DMPW</t>
+  </si>
+  <si>
+    <t>SWGY</t>
+  </si>
+  <si>
+    <t>AWYR</t>
+  </si>
+  <si>
+    <t>LDVW</t>
+  </si>
+  <si>
+    <t>YLPS</t>
+  </si>
+  <si>
+    <t>DSAV</t>
+  </si>
+  <si>
+    <t>ETGT</t>
+  </si>
+  <si>
+    <t>VQIS</t>
+  </si>
+  <si>
+    <t>SYEK</t>
+  </si>
+  <si>
+    <t>RDLM</t>
+  </si>
+  <si>
+    <t>TISG</t>
+  </si>
+  <si>
+    <t>KKEH</t>
+  </si>
+  <si>
+    <t>KSSG</t>
+  </si>
+  <si>
+    <t>LSRG</t>
+  </si>
+  <si>
+    <t>MWKT</t>
+  </si>
+  <si>
+    <t>EIAL</t>
+  </si>
+  <si>
+    <t>TVSE</t>
+  </si>
+  <si>
+    <t>MSDD</t>
+  </si>
+  <si>
+    <t>GTAV</t>
+  </si>
+  <si>
+    <t>TRRQ</t>
+  </si>
+  <si>
+    <t>KSIP</t>
+  </si>
+  <si>
+    <t>LEDW</t>
+  </si>
+  <si>
+    <t>LVDI</t>
+  </si>
+  <si>
+    <t>ITQA</t>
+  </si>
+  <si>
+    <t>PPNP</t>
+  </si>
+  <si>
+    <t>ATIS</t>
+  </si>
+  <si>
+    <t>DVYL</t>
+  </si>
+  <si>
+    <t>QGCL</t>
+  </si>
+  <si>
+    <t>ILVP</t>
+  </si>
+  <si>
+    <t>MVAK</t>
+  </si>
+  <si>
+    <t>GIIA</t>
+  </si>
+  <si>
+    <t>PVWI</t>
+  </si>
+  <si>
+    <t>PEIT</t>
+  </si>
+  <si>
+    <t>SPMR</t>
+  </si>
+  <si>
+    <t>ERNT</t>
+  </si>
+  <si>
+    <t>MVGY</t>
+  </si>
+  <si>
+    <t>VWNM</t>
+  </si>
+  <si>
+    <t>IPEF</t>
+  </si>
+  <si>
+    <t>TSGV</t>
+  </si>
+  <si>
+    <t>VWYH</t>
+  </si>
+  <si>
+    <t>VGGG</t>
+  </si>
+  <si>
+    <t>IKSA</t>
+  </si>
+  <si>
+    <t>DLPT</t>
+  </si>
+  <si>
+    <t>LGSE</t>
+  </si>
+  <si>
+    <t>SGCM</t>
+  </si>
+  <si>
+    <t>SPEL</t>
+  </si>
+  <si>
+    <t>KNTG</t>
+  </si>
+  <si>
+    <t>VVEW</t>
+  </si>
+  <si>
+    <t>GPSW</t>
+  </si>
+  <si>
+    <t>RSSF</t>
+  </si>
+  <si>
+    <t>HYSI</t>
+  </si>
+  <si>
+    <t>TTQN</t>
+  </si>
+  <si>
+    <t>PGLK</t>
+  </si>
+  <si>
+    <t>GVPI</t>
+  </si>
+  <si>
+    <t>GSYQ</t>
+  </si>
+  <si>
+    <t>ATIG</t>
+  </si>
+  <si>
+    <t>VRNG</t>
+  </si>
+  <si>
+    <t>DDSC</t>
+  </si>
+  <si>
+    <t>TPQG</t>
+  </si>
+  <si>
+    <t>GGWI</t>
+  </si>
+  <si>
+    <t>YLTI</t>
+  </si>
+  <si>
+    <t>CRLS</t>
+  </si>
+  <si>
+    <t>EDSG</t>
+  </si>
+  <si>
+    <t>MMT</t>
+  </si>
+  <si>
+    <t>TPSN</t>
+  </si>
+  <si>
+    <t>SSHW</t>
+  </si>
+  <si>
+    <t>VMGK</t>
+  </si>
+  <si>
+    <t>QEDV</t>
+  </si>
+  <si>
+    <t>NMAV</t>
+  </si>
+  <si>
+    <t>RAWR</t>
+  </si>
+  <si>
+    <t>VPSI</t>
+  </si>
+  <si>
+    <t>LRPD</t>
+  </si>
+  <si>
+    <t>VGSS</t>
+  </si>
+  <si>
+    <t>SSNI</t>
+  </si>
+  <si>
+    <t>SHRH</t>
+  </si>
+  <si>
+    <t>LVSA</t>
+  </si>
+  <si>
+    <t>PARD</t>
+  </si>
+  <si>
+    <t>TNLE</t>
+  </si>
+  <si>
+    <t>GEAA</t>
+  </si>
+  <si>
+    <t>MSFE</t>
+  </si>
+  <si>
+    <t>EERP</t>
+  </si>
+  <si>
+    <t>PSGL</t>
+  </si>
+  <si>
+    <t>TTAA</t>
+  </si>
+  <si>
+    <t>EVLV</t>
+  </si>
+  <si>
+    <t>GSSA</t>
+  </si>
+  <si>
+    <t>SGDM</t>
+  </si>
+  <si>
+    <t>GALP</t>
+  </si>
+  <si>
+    <t>PFFL</t>
+  </si>
+  <si>
+    <t>NVAL</t>
+  </si>
+  <si>
+    <t>PLEQ</t>
+  </si>
+  <si>
+    <t>QSLR</t>
+  </si>
+  <si>
+    <t>EQLP</t>
+  </si>
+  <si>
+    <t>LYKS</t>
+  </si>
+  <si>
+    <t>HFFQ</t>
+  </si>
+  <si>
+    <t>MSEL</t>
+  </si>
+  <si>
+    <t>SPTG</t>
+  </si>
+  <si>
+    <t>SWPL</t>
+  </si>
+  <si>
+    <t>VPYA</t>
+  </si>
+  <si>
+    <t>GWPG</t>
+  </si>
+  <si>
+    <t>GTYH</t>
+  </si>
+  <si>
+    <t>RAVD</t>
+  </si>
+  <si>
+    <t>GEAI</t>
+  </si>
+  <si>
+    <t>SYSQ</t>
+  </si>
+  <si>
+    <t>IVPT</t>
+  </si>
+  <si>
+    <t>PKGP</t>
+  </si>
+  <si>
+    <t>EVAL</t>
+  </si>
+  <si>
+    <t>PGVP</t>
+  </si>
+  <si>
+    <t>LHMY</t>
+  </si>
+  <si>
+    <t>MPSA</t>
+  </si>
+  <si>
+    <t>SLVT</t>
+  </si>
+  <si>
+    <t>VVGL</t>
+  </si>
+  <si>
+    <t>IHRR</t>
+  </si>
+  <si>
+    <t>HTES</t>
+  </si>
+  <si>
+    <t>DVGW</t>
+  </si>
+  <si>
+    <t>SISV</t>
+  </si>
+  <si>
+    <t>RTEE</t>
+  </si>
+  <si>
+    <t>EFRE</t>
+  </si>
+  <si>
+    <t>NVAG</t>
+  </si>
+  <si>
+    <t>LTLF</t>
+  </si>
+  <si>
+    <t>ADSL</t>
+  </si>
+  <si>
+    <t>EHSS</t>
+  </si>
+  <si>
+    <t>QSYW</t>
+  </si>
+  <si>
+    <t>SRTS</t>
   </si>
   <si>
     <t>MKTR</t>
   </si>
   <si>
-    <t>FSMK</t>
-  </si>
-  <si>
-    <t>GLHA</t>
-  </si>
-  <si>
-    <t>TWLL</t>
-  </si>
-  <si>
-    <t>KSSD</t>
-  </si>
-  <si>
-    <t>KSIP</t>
-  </si>
-  <si>
-    <t>VDWL</t>
-  </si>
-  <si>
-    <t>TLVL</t>
-  </si>
-  <si>
-    <t>TGSE</t>
-  </si>
-  <si>
-    <t>TDYA</t>
-  </si>
-  <si>
-    <t>FTSG</t>
-  </si>
-  <si>
-    <t>EHLP</t>
-  </si>
-  <si>
-    <t>ALAA</t>
-  </si>
-  <si>
-    <t>QKLL</t>
-  </si>
-  <si>
-    <t>FCCL</t>
-  </si>
-  <si>
-    <t>ALLE</t>
-  </si>
-  <si>
-    <t>NIYI</t>
-  </si>
-  <si>
-    <t>LGPT</t>
-  </si>
-  <si>
-    <t>KGLI</t>
-  </si>
-  <si>
-    <t>RRSM</t>
-  </si>
-  <si>
-    <t>RGST</t>
-  </si>
-  <si>
-    <t>LREQ</t>
-  </si>
-  <si>
-    <t>SDPP</t>
-  </si>
-  <si>
-    <t>KFIL</t>
-  </si>
-  <si>
-    <t>DGII</t>
-  </si>
-  <si>
-    <t>NGMS</t>
-  </si>
-  <si>
-    <t>YVLI</t>
-  </si>
-  <si>
-    <t>PQNS</t>
-  </si>
-  <si>
-    <t>ISSF</t>
-  </si>
-  <si>
-    <t>FQST</t>
-  </si>
-  <si>
-    <t>QLCC</t>
-  </si>
-  <si>
-    <t>EGQG</t>
-  </si>
-  <si>
-    <t>QMQM</t>
+    <t>SSLY</t>
+  </si>
+  <si>
+    <t>VSTS</t>
+  </si>
+  <si>
+    <t>SPDG</t>
+  </si>
+  <si>
+    <t>TGPG</t>
+  </si>
+  <si>
+    <t>DVAA</t>
+  </si>
+  <si>
+    <t>RMEW</t>
+  </si>
+  <si>
+    <t>NQGL</t>
+  </si>
+  <si>
+    <t>QILM</t>
+  </si>
+  <si>
+    <t>GGAR</t>
+  </si>
+  <si>
+    <t>TWIL</t>
+  </si>
+  <si>
+    <t>LHGI</t>
+  </si>
+  <si>
+    <t>QKKP</t>
+  </si>
+  <si>
+    <t>DISV</t>
+  </si>
+  <si>
+    <t>GGFS</t>
+  </si>
+  <si>
+    <t>AQFQ</t>
+  </si>
+  <si>
+    <t>ASRM</t>
+  </si>
+  <si>
+    <t>SDEQ</t>
+  </si>
+  <si>
+    <t>VAMP</t>
+  </si>
+  <si>
+    <t>VQGE</t>
+  </si>
+  <si>
+    <t>LSLG</t>
+  </si>
+  <si>
+    <t>QLPA</t>
+  </si>
+  <si>
+    <t>TLKA</t>
+  </si>
+  <si>
+    <t>ERPW</t>
+  </si>
+  <si>
+    <t>KAEH</t>
+  </si>
+  <si>
+    <t>GNLR</t>
+  </si>
+  <si>
+    <t>YPAV</t>
+  </si>
+  <si>
+    <t>GKGL</t>
+  </si>
+  <si>
+    <t>DHTT</t>
+  </si>
+  <si>
+    <t>RTSF</t>
+  </si>
+  <si>
+    <t>LLYV</t>
+  </si>
+  <si>
+    <t>PKPV</t>
+  </si>
+  <si>
+    <t>LSSS</t>
+  </si>
+  <si>
+    <t>SERS</t>
+  </si>
+  <si>
+    <t>ECHR</t>
+  </si>
+  <si>
+    <t>CMPT</t>
+  </si>
+  <si>
+    <t>KPPG</t>
+  </si>
+  <si>
+    <t>CEWS</t>
+  </si>
+  <si>
+    <t>AGLG</t>
+  </si>
+  <si>
+    <t>NSKV</t>
+  </si>
+  <si>
+    <t>SDLE</t>
+  </si>
+  <si>
+    <t>KKTT</t>
+  </si>
+  <si>
+    <t>ESVL</t>
+  </si>
+  <si>
+    <t>WDKE</t>
+  </si>
+  <si>
+    <t>GPVP</t>
+  </si>
+  <si>
+    <t>GQQE</t>
+  </si>
+  <si>
+    <t>YAFY</t>
+  </si>
+  <si>
+    <t>DSSK</t>
+  </si>
+  <si>
+    <t>TLKD</t>
+  </si>
+  <si>
+    <t>YMPL</t>
+  </si>
+  <si>
+    <t>LKFS</t>
+  </si>
+  <si>
+    <t>PLVM</t>
+  </si>
+  <si>
+    <t>DDIC</t>
+  </si>
+  <si>
+    <t>FLEN</t>
+  </si>
+  <si>
+    <t>PVAA</t>
+  </si>
+  <si>
+    <t>FQYV</t>
+  </si>
+  <si>
+    <t>SGML</t>
+  </si>
+  <si>
+    <t>STVS</t>
+  </si>
+  <si>
+    <t>AGTI</t>
+  </si>
+  <si>
+    <t>VVAL</t>
+  </si>
+  <si>
+    <t>VVLA</t>
+  </si>
+  <si>
+    <t>PLIV</t>
+  </si>
+  <si>
+    <t>PIGC</t>
+  </si>
+  <si>
+    <t>TAGD</t>
+  </si>
+  <si>
+    <t>WIAA</t>
+  </si>
+  <si>
+    <t>LAAL</t>
+  </si>
+  <si>
+    <t>DLYL</t>
+  </si>
+  <si>
+    <t>AVSG</t>
+  </si>
+  <si>
+    <t>VVYT</t>
+  </si>
+  <si>
+    <t>LYIL</t>
+  </si>
+  <si>
+    <t>IPVI</t>
+  </si>
+  <si>
+    <t>KLYI</t>
+  </si>
+  <si>
+    <t>QVSF</t>
+  </si>
+  <si>
+    <t>RILL</t>
+  </si>
+  <si>
+    <t>KKKV</t>
+  </si>
+  <si>
+    <t>AIVA</t>
+  </si>
+  <si>
+    <t>ILML</t>
+  </si>
+  <si>
+    <t>VLLI</t>
+  </si>
+  <si>
+    <t>RMSV</t>
+  </si>
+  <si>
+    <t>VIAV</t>
+  </si>
+  <si>
+    <t>LIVL</t>
+  </si>
+  <si>
+    <t>IGGV</t>
+  </si>
+  <si>
+    <t>IAGV</t>
+  </si>
+  <si>
+    <t>RLSI</t>
+  </si>
+  <si>
+    <t>YIAI</t>
+  </si>
+  <si>
+    <t>TAGV</t>
+  </si>
+  <si>
+    <t>FLFA</t>
+  </si>
+  <si>
+    <t>IILA</t>
+  </si>
+  <si>
+    <t>PVIA</t>
+  </si>
+  <si>
+    <t>LTFF</t>
+  </si>
+  <si>
+    <t>FLIL</t>
+  </si>
+  <si>
+    <t>WLRL</t>
+  </si>
+  <si>
+    <t>TFVL</t>
+  </si>
+  <si>
+    <t>LLPL</t>
+  </si>
+  <si>
+    <t>AVGL</t>
+  </si>
+  <si>
+    <t>LIWG</t>
+  </si>
+  <si>
+    <t>LFVV</t>
+  </si>
+  <si>
+    <t>NVYL</t>
+  </si>
+  <si>
+    <t>WGLW</t>
+  </si>
+  <si>
+    <t>RTLV</t>
+  </si>
+  <si>
+    <t>GFLF</t>
+  </si>
+  <si>
+    <t>HTVI</t>
+  </si>
+  <si>
+    <t>YLIY</t>
+  </si>
+  <si>
+    <t>CVLG</t>
+  </si>
+  <si>
+    <t>IVSP</t>
+  </si>
+  <si>
+    <t>GATI</t>
+  </si>
+  <si>
+    <t>IVFG</t>
+  </si>
+  <si>
+    <t>LIIF</t>
+  </si>
+  <si>
+    <t>SVLL</t>
+  </si>
+  <si>
+    <t>KLWI</t>
+  </si>
+  <si>
+    <t>VLGP</t>
+  </si>
+  <si>
+    <t>RAVF</t>
+  </si>
+  <si>
+    <t>HILI</t>
+  </si>
+  <si>
+    <t>IEGL</t>
+  </si>
+  <si>
+    <t>TAFS</t>
+  </si>
+  <si>
+    <t>SCIL</t>
+  </si>
+  <si>
+    <t>PVGP</t>
+  </si>
+  <si>
+    <t>LKAT</t>
+  </si>
+  <si>
+    <t>VALF</t>
+  </si>
+  <si>
+    <t>IVIT</t>
+  </si>
+  <si>
+    <t>LALY</t>
+  </si>
+  <si>
+    <t>AALA</t>
+  </si>
+  <si>
+    <t>EESF</t>
+  </si>
+  <si>
+    <t>IVMV</t>
+  </si>
+  <si>
+    <t>DVIG</t>
+  </si>
+  <si>
+    <t>LIRI</t>
+  </si>
+  <si>
+    <t>AVIL</t>
+  </si>
+  <si>
+    <t>EPII</t>
+  </si>
+  <si>
+    <t>ILLF</t>
+  </si>
+  <si>
+    <t>AVVV</t>
+  </si>
+  <si>
+    <t>GLIF</t>
+  </si>
+  <si>
+    <t>GTIG</t>
+  </si>
+  <si>
+    <t>LVPG</t>
+  </si>
+  <si>
+    <t>VPVV</t>
+  </si>
+  <si>
+    <t>MIAI</t>
+  </si>
+  <si>
+    <t>LLLP</t>
+  </si>
+  <si>
+    <t>TTVL</t>
+  </si>
+  <si>
+    <t>TSLI</t>
+  </si>
+  <si>
+    <t>IVLL</t>
+  </si>
+  <si>
+    <t>VWWF</t>
+  </si>
+  <si>
+    <t>LRYL</t>
+  </si>
+  <si>
+    <t>LTLY</t>
+  </si>
+  <si>
+    <t>TSLL</t>
+  </si>
+  <si>
+    <t>ATVV</t>
+  </si>
+  <si>
+    <t>VALL</t>
+  </si>
+  <si>
+    <t>VYTY</t>
+  </si>
+  <si>
+    <t>IPVY</t>
+  </si>
+  <si>
+    <t>LGLL</t>
+  </si>
+  <si>
+    <t>SVVV</t>
+  </si>
+  <si>
+    <t>YLIL</t>
+  </si>
+  <si>
+    <t>IIIL</t>
+  </si>
+  <si>
+    <t>GITL</t>
+  </si>
+  <si>
+    <t>TTAI</t>
+  </si>
+  <si>
+    <t>WLWL</t>
+  </si>
+  <si>
+    <t>PLLP</t>
+  </si>
+  <si>
+    <t>VLFF</t>
+  </si>
+  <si>
+    <t>AVIV</t>
+  </si>
+  <si>
+    <t>AGLA</t>
+  </si>
+  <si>
+    <t>GVYY</t>
+  </si>
+  <si>
+    <t>AGHL</t>
+  </si>
+  <si>
+    <t>WGLL</t>
+  </si>
+  <si>
+    <t>YVGI</t>
+  </si>
+  <si>
+    <t>VAVL</t>
+  </si>
+  <si>
+    <t>PYIP</t>
+  </si>
+  <si>
+    <t>LIAG</t>
+  </si>
+  <si>
+    <t>SGAI</t>
+  </si>
+  <si>
+    <t>QLGY</t>
+  </si>
+  <si>
+    <t>TETV</t>
+  </si>
+  <si>
+    <t>LSTG</t>
+  </si>
+  <si>
+    <t>VLTL</t>
+  </si>
+  <si>
+    <t>IVGG</t>
+  </si>
+  <si>
+    <t>NTLV</t>
+  </si>
+  <si>
+    <t>TIFL</t>
+  </si>
+  <si>
+    <t>HAVI</t>
+  </si>
+  <si>
+    <t>PLVL</t>
+  </si>
+  <si>
+    <t>KTLI</t>
+  </si>
+  <si>
+    <t>RVIT</t>
+  </si>
+  <si>
+    <t>DILV</t>
+  </si>
+  <si>
+    <t>FAGI</t>
+  </si>
+  <si>
+    <t>GWGI</t>
+  </si>
+  <si>
+    <t>LKAL</t>
+  </si>
+  <si>
+    <t>AYQT</t>
+  </si>
+  <si>
+    <t>VVGG</t>
+  </si>
+  <si>
+    <t>IFRL</t>
+  </si>
+  <si>
+    <t>WVLV</t>
+  </si>
+  <si>
+    <t>AGVI</t>
+  </si>
+  <si>
+    <t>AALL</t>
+  </si>
+  <si>
+    <t>AAWA</t>
+  </si>
+  <si>
+    <t>IFYI</t>
+  </si>
+  <si>
+    <t>VVII</t>
+  </si>
+  <si>
+    <t>LALT</t>
+  </si>
+  <si>
+    <t>TVYL</t>
+  </si>
+  <si>
+    <t>MLIH</t>
+  </si>
+  <si>
+    <t>PHFV</t>
+  </si>
+  <si>
+    <t>VVFV</t>
+  </si>
+  <si>
+    <t>LLIL</t>
+  </si>
+  <si>
+    <t>FWVL</t>
+  </si>
+  <si>
+    <t>SVTI</t>
+  </si>
+  <si>
+    <t>ADSG</t>
+  </si>
+  <si>
+    <t>AAVV</t>
+  </si>
+  <si>
+    <t>VVVP</t>
+  </si>
+  <si>
+    <t>IIPL</t>
+  </si>
+  <si>
+    <t>TIGI</t>
+  </si>
+  <si>
+    <t>IAVF</t>
+  </si>
+  <si>
+    <t>VLSL</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>LIFL</t>
+  </si>
+  <si>
+    <t>SLLS</t>
+  </si>
+  <si>
+    <t>YLDI</t>
+  </si>
+  <si>
+    <t>TAPL</t>
+  </si>
+  <si>
+    <t>DPMG</t>
+  </si>
+  <si>
+    <t>CAAV</t>
+  </si>
+  <si>
+    <t>LTVM</t>
+  </si>
+  <si>
+    <t>AIPL</t>
+  </si>
+  <si>
+    <t>LTGW</t>
+  </si>
+  <si>
+    <t>ALWT</t>
+  </si>
+  <si>
+    <t>TVIV</t>
+  </si>
+  <si>
+    <t>LWVV</t>
+  </si>
+  <si>
+    <t>HLHI</t>
+  </si>
+  <si>
+    <t>LGAA</t>
+  </si>
+  <si>
+    <t>VLPS</t>
+  </si>
+  <si>
+    <t>ILAV</t>
+  </si>
+  <si>
+    <t>LAIA</t>
+  </si>
+  <si>
+    <t>TLVY</t>
+  </si>
+  <si>
+    <t>ALIG</t>
+  </si>
+  <si>
+    <t>QAVG</t>
+  </si>
+  <si>
+    <t>TALV</t>
+  </si>
+  <si>
+    <t>LVAL</t>
+  </si>
+  <si>
+    <t>VFYV</t>
+  </si>
+  <si>
+    <t>QVPL</t>
+  </si>
+  <si>
+    <t>ALFA</t>
+  </si>
+  <si>
+    <t>IGMY</t>
+  </si>
+  <si>
+    <t>DYAM</t>
+  </si>
+  <si>
+    <t>PMWV</t>
+  </si>
+  <si>
+    <t>PVLV</t>
+  </si>
+  <si>
+    <t>LSVL</t>
+  </si>
+  <si>
+    <t>LLII</t>
+  </si>
+  <si>
+    <t>TYLI</t>
+  </si>
+  <si>
+    <t>MGIL</t>
+  </si>
+  <si>
+    <t>GIIM</t>
   </si>
   <si>
     <t>WVYW</t>
   </si>
   <si>
-    <t>NPAG</t>
-  </si>
-  <si>
-    <t>GWDP</t>
-  </si>
-  <si>
-    <t>NPPN</t>
-  </si>
-  <si>
-    <t>TAVI</t>
-  </si>
-  <si>
-    <t>VHLG</t>
-  </si>
-  <si>
-    <t>YSVV</t>
-  </si>
-  <si>
-    <t>AIGT</t>
-  </si>
-  <si>
-    <t>VCAL</t>
-  </si>
-  <si>
-    <t>GSLL</t>
-  </si>
-  <si>
-    <t>SLMN</t>
-  </si>
-  <si>
-    <t>GTGG</t>
-  </si>
-  <si>
-    <t>FPPW</t>
-  </si>
-  <si>
-    <t>LRYL</t>
-  </si>
-  <si>
-    <t>SSAA</t>
-  </si>
-  <si>
-    <t>LPAM</t>
-  </si>
-  <si>
-    <t>NWMA</t>
-  </si>
-  <si>
-    <t>MSVY</t>
-  </si>
-  <si>
-    <t>SLLI</t>
-  </si>
-  <si>
-    <t>QMGS</t>
-  </si>
-  <si>
-    <t>RRSS</t>
-  </si>
-  <si>
-    <t>LEIG</t>
-  </si>
-  <si>
-    <t>LSIV</t>
-  </si>
-  <si>
-    <t>FKRT</t>
-  </si>
-  <si>
-    <t>PMLV</t>
-  </si>
-  <si>
-    <t>TSSS</t>
-  </si>
-  <si>
-    <t>GLFA</t>
-  </si>
-  <si>
-    <t>LGGG</t>
-  </si>
-  <si>
-    <t>ETAI</t>
-  </si>
-  <si>
-    <t>MTIA</t>
-  </si>
-  <si>
-    <t>CPDS</t>
-  </si>
-  <si>
-    <t>PIYI</t>
-  </si>
-  <si>
-    <t>WYSL</t>
-  </si>
-  <si>
-    <t>CTNG</t>
-  </si>
-  <si>
-    <t>TLFV</t>
-  </si>
-  <si>
-    <t>KILV</t>
-  </si>
-  <si>
-    <t>VRLG</t>
-  </si>
-  <si>
-    <t>PLCW</t>
-  </si>
-  <si>
-    <t>GLAI</t>
-  </si>
-  <si>
-    <t>EVHN</t>
-  </si>
-  <si>
-    <t>VTFI</t>
-  </si>
-  <si>
-    <t>SLCV</t>
-  </si>
-  <si>
-    <t>TYSI</t>
-  </si>
-  <si>
-    <t>GTYA</t>
-  </si>
-  <si>
-    <t>VWQR</t>
-  </si>
-  <si>
-    <t>DGTT</t>
-  </si>
-  <si>
-    <t>PGAL</t>
-  </si>
-  <si>
-    <t>ILNG</t>
-  </si>
-  <si>
-    <t>INEH</t>
-  </si>
-  <si>
-    <t>WKSL</t>
-  </si>
-  <si>
-    <t>SIVY</t>
-  </si>
-  <si>
-    <t>DLFV</t>
-  </si>
-  <si>
-    <t>LDEV</t>
-  </si>
-  <si>
-    <t>TAWL</t>
-  </si>
-  <si>
-    <t>LPDR</t>
-  </si>
-  <si>
-    <t>LGAE</t>
-  </si>
-  <si>
-    <t>YGYT</t>
-  </si>
-  <si>
-    <t>NIVG</t>
-  </si>
-  <si>
-    <t>QLIL</t>
-  </si>
-  <si>
-    <t>ENIL</t>
-  </si>
-  <si>
-    <t>QRSE</t>
-  </si>
-  <si>
-    <t>LPRW</t>
-  </si>
-  <si>
-    <t>EEET</t>
-  </si>
-  <si>
-    <t>AYLY</t>
-  </si>
-  <si>
-    <t>MASI</t>
-  </si>
-  <si>
-    <t>TVGI</t>
-  </si>
-  <si>
-    <t>IALF</t>
-  </si>
-  <si>
-    <t>LGGT</t>
-  </si>
-  <si>
-    <t>AMPL</t>
-  </si>
-  <si>
-    <t>KDGT</t>
-  </si>
-  <si>
-    <t>STLD</t>
-  </si>
-  <si>
-    <t>RGAL</t>
-  </si>
-  <si>
-    <t>DEAG</t>
-  </si>
-  <si>
-    <t>SKVL</t>
-  </si>
-  <si>
-    <t>SGTA</t>
-  </si>
-  <si>
-    <t>TLGI</t>
-  </si>
-  <si>
-    <t>ESTL</t>
-  </si>
-  <si>
-    <t>KPHL</t>
-  </si>
-  <si>
-    <t>PERS</t>
-  </si>
-  <si>
-    <t>RTHP</t>
-  </si>
-  <si>
-    <t>VDDS</t>
-  </si>
-  <si>
-    <t>HRKT</t>
-  </si>
-  <si>
-    <t>ENLI</t>
-  </si>
-  <si>
-    <t>GILY</t>
-  </si>
-  <si>
-    <t>EESW</t>
-  </si>
-  <si>
-    <t>LQDQ</t>
-  </si>
-  <si>
-    <t>VAAF</t>
-  </si>
-  <si>
-    <t>RQGP</t>
-  </si>
-  <si>
-    <t>FYVV</t>
-  </si>
-  <si>
-    <t>AGLG</t>
-  </si>
-  <si>
-    <t>PPSL</t>
-  </si>
-  <si>
-    <t>KEKI</t>
-  </si>
-  <si>
-    <t>NLAL</t>
-  </si>
-  <si>
-    <t>PLLL</t>
-  </si>
-  <si>
-    <t>FYEH</t>
-  </si>
-  <si>
-    <t>EFRE</t>
-  </si>
-  <si>
-    <t>LEAL</t>
-  </si>
-  <si>
-    <t>TKEN</t>
-  </si>
-  <si>
-    <t>SVKQ</t>
-  </si>
-  <si>
-    <t>MALA</t>
-  </si>
-  <si>
-    <t>GEGT</t>
-  </si>
-  <si>
-    <t>LMLP</t>
-  </si>
-  <si>
-    <t>VKVS</t>
-  </si>
-  <si>
-    <t>EDII</t>
-  </si>
-  <si>
-    <t>DGLL</t>
-  </si>
-  <si>
-    <t>QGVV</t>
-  </si>
-  <si>
-    <t>THNW</t>
-  </si>
-  <si>
-    <t>SQMV</t>
-  </si>
-  <si>
-    <t>ELSC</t>
-  </si>
-  <si>
-    <t>SMSH</t>
-  </si>
-  <si>
-    <t>LRIF</t>
-  </si>
-  <si>
-    <t>LGVG</t>
-  </si>
-  <si>
-    <t>KVNP</t>
-  </si>
-  <si>
-    <t>KDSS</t>
-  </si>
-  <si>
-    <t>NLGL</t>
-  </si>
-  <si>
-    <t>AWKA</t>
-  </si>
-  <si>
-    <t>SEIM</t>
-  </si>
-  <si>
-    <t>PIMG</t>
-  </si>
-  <si>
-    <t>LLGP</t>
-  </si>
-  <si>
-    <t>MTIL</t>
-  </si>
-  <si>
-    <t>PNFL</t>
-  </si>
-  <si>
-    <t>IAVV</t>
-  </si>
-  <si>
-    <t>LPSD</t>
-  </si>
-  <si>
-    <t>TPFL</t>
-  </si>
-  <si>
-    <t>CHRT</t>
-  </si>
-  <si>
-    <t>LVLQ</t>
-  </si>
-  <si>
-    <t>GHLI</t>
-  </si>
-  <si>
-    <t>PAFS</t>
-  </si>
-  <si>
-    <t>ASQK</t>
-  </si>
-  <si>
-    <t>DSLL</t>
-  </si>
-  <si>
-    <t>GIIV</t>
-  </si>
-  <si>
-    <t>MTGI</t>
-  </si>
-  <si>
-    <t>NVLI</t>
-  </si>
-  <si>
-    <t>ALGD</t>
-  </si>
-  <si>
-    <t>PSLL</t>
-  </si>
-  <si>
-    <t>SFPV</t>
-  </si>
-  <si>
-    <t>VKMG</t>
-  </si>
-  <si>
-    <t>PVAK</t>
-  </si>
-  <si>
-    <t>QKNP</t>
-  </si>
-  <si>
-    <t>HRVE</t>
-  </si>
-  <si>
-    <t>RRMS</t>
-  </si>
-  <si>
-    <t>INLP</t>
-  </si>
-  <si>
-    <t>KNKM</t>
-  </si>
-  <si>
-    <t>FVLW</t>
-  </si>
-  <si>
-    <t>LINM</t>
-  </si>
-  <si>
-    <t>MGG</t>
-  </si>
-  <si>
-    <t>ELNI</t>
-  </si>
-  <si>
-    <t>FNGE</t>
-  </si>
-  <si>
-    <t>NTAF</t>
-  </si>
-  <si>
-    <t>TNSK</t>
-  </si>
-  <si>
-    <t>GLSP</t>
-  </si>
-  <si>
-    <t>KFYL</t>
-  </si>
-  <si>
-    <t>SYWL</t>
-  </si>
-  <si>
-    <t>VPFL</t>
-  </si>
-  <si>
-    <t>APTR</t>
-  </si>
-  <si>
-    <t>TTQN</t>
-  </si>
-  <si>
-    <t>RRML</t>
-  </si>
-  <si>
-    <t>PLLP</t>
-  </si>
-  <si>
-    <t>DQQL</t>
-  </si>
-  <si>
-    <t>KNNH</t>
-  </si>
-  <si>
-    <t>NQRV</t>
-  </si>
-  <si>
-    <t>LKIL</t>
-  </si>
-  <si>
-    <t>AKIG</t>
-  </si>
-  <si>
-    <t>TVHF</t>
-  </si>
-  <si>
-    <t>TSTT</t>
-  </si>
-  <si>
-    <t>RNLS</t>
-  </si>
-  <si>
-    <t>DIMV</t>
-  </si>
-  <si>
-    <t>LLIL</t>
-  </si>
-  <si>
-    <t>RLTA</t>
-  </si>
-  <si>
-    <t>AGFI</t>
-  </si>
-  <si>
-    <t>YTLL</t>
-  </si>
-  <si>
-    <t>NRLL</t>
-  </si>
-  <si>
-    <t>LIWG</t>
-  </si>
-  <si>
-    <t>LVFS</t>
-  </si>
-  <si>
-    <t>IVLV</t>
-  </si>
-  <si>
-    <t>TAWI</t>
-  </si>
-  <si>
-    <t>MLVT</t>
-  </si>
-  <si>
-    <t>DMSV</t>
-  </si>
-  <si>
-    <t>WMIV</t>
-  </si>
-  <si>
-    <t>VMGS</t>
-  </si>
-  <si>
-    <t>TSVI</t>
-  </si>
-  <si>
-    <t>LPLG</t>
-  </si>
-  <si>
-    <t>QHLF</t>
-  </si>
-  <si>
-    <t>VVGV</t>
-  </si>
-  <si>
-    <t>GAKA</t>
-  </si>
-  <si>
-    <t>QGAI</t>
-  </si>
-  <si>
-    <t>PLGA</t>
-  </si>
-  <si>
-    <t>RDTI</t>
-  </si>
-  <si>
-    <t>LPLI</t>
-  </si>
-  <si>
-    <t>EDVL</t>
-  </si>
-  <si>
-    <t>ISSL</t>
-  </si>
-  <si>
-    <t>LIQT</t>
-  </si>
-  <si>
-    <t>GGEA</t>
-  </si>
-  <si>
-    <t>SSVL</t>
-  </si>
-  <si>
-    <t>DLTL</t>
-  </si>
-  <si>
-    <t>FSFR</t>
-  </si>
-  <si>
-    <t>WDTV</t>
-  </si>
-  <si>
-    <t>QLKL</t>
-  </si>
-  <si>
-    <t>FHIL</t>
-  </si>
-  <si>
-    <t>QMVL</t>
-  </si>
-  <si>
-    <t>FITG</t>
-  </si>
-  <si>
-    <t>LAAG</t>
-  </si>
-  <si>
-    <t>HMLL</t>
-  </si>
-  <si>
-    <t>NLWI</t>
-  </si>
-  <si>
-    <t>GVVV</t>
-  </si>
-  <si>
-    <t>YLSL</t>
-  </si>
-  <si>
-    <t>FNLV</t>
-  </si>
-  <si>
-    <t>VIIA</t>
-  </si>
-  <si>
-    <t>TLTI</t>
-  </si>
-  <si>
-    <t>LGAM</t>
-  </si>
-  <si>
-    <t>HQIT</t>
-  </si>
-  <si>
-    <t>SLLC</t>
-  </si>
-  <si>
-    <t>APKL</t>
-  </si>
-  <si>
-    <t>MGLA</t>
-  </si>
-  <si>
-    <t>FVAP</t>
-  </si>
-  <si>
-    <t>YMIV</t>
-  </si>
-  <si>
-    <t>ILYV</t>
-  </si>
-  <si>
-    <t>TVTA</t>
-  </si>
-  <si>
-    <t>LYII</t>
-  </si>
-  <si>
-    <t>MYAL</t>
-  </si>
-  <si>
-    <t>YFYS</t>
-  </si>
-  <si>
-    <t>EVLA</t>
-  </si>
-  <si>
-    <t>AVLT</t>
-  </si>
-  <si>
-    <t>APTL</t>
-  </si>
-  <si>
-    <t>DGHL</t>
-  </si>
-  <si>
-    <t>KMLL</t>
-  </si>
-  <si>
-    <t>VVSI</t>
-  </si>
-  <si>
-    <t>YVMA</t>
-  </si>
-  <si>
-    <t>DFLL</t>
-  </si>
-  <si>
-    <t>HVFS</t>
-  </si>
-  <si>
-    <t>RVGG</t>
-  </si>
-  <si>
-    <t>IAAI</t>
-  </si>
-  <si>
-    <t>AGGT</t>
-  </si>
-  <si>
-    <t>TISC</t>
-  </si>
-  <si>
-    <t>PWAI</t>
-  </si>
-  <si>
-    <t>GALA</t>
-  </si>
-  <si>
-    <t>AAIV</t>
-  </si>
-  <si>
-    <t>PVPL</t>
-  </si>
-  <si>
-    <t>IATV</t>
-  </si>
-  <si>
-    <t>VLYV</t>
-  </si>
-  <si>
-    <t>YIFT</t>
-  </si>
-  <si>
-    <t>QIMT</t>
-  </si>
-  <si>
-    <t>KVTS</t>
-  </si>
-  <si>
-    <t>VGIF</t>
-  </si>
-  <si>
-    <t>WLQV</t>
-  </si>
-  <si>
-    <t>NQLV</t>
-  </si>
-  <si>
-    <t>LPWM</t>
-  </si>
-  <si>
-    <t>ALTF</t>
-  </si>
-  <si>
-    <t>FYSS</t>
-  </si>
-  <si>
-    <t>FFSV</t>
-  </si>
-  <si>
-    <t>LSWD</t>
-  </si>
-  <si>
-    <t>ALTL</t>
-  </si>
-  <si>
-    <t>TWAY</t>
-  </si>
-  <si>
-    <t>RHSV</t>
-  </si>
-  <si>
-    <t>DKLI</t>
-  </si>
-  <si>
-    <t>SVLV</t>
-  </si>
-  <si>
-    <t>TIVG</t>
-  </si>
-  <si>
-    <t>FLLL</t>
-  </si>
-  <si>
-    <t>EMGL</t>
-  </si>
-  <si>
-    <t>HVAL</t>
-  </si>
-  <si>
-    <t>RSLP</t>
-  </si>
-  <si>
-    <t>ILLI</t>
-  </si>
-  <si>
-    <t>VSEI</t>
-  </si>
-  <si>
-    <t>FTIA</t>
-  </si>
-  <si>
-    <t>LILL</t>
-  </si>
-  <si>
-    <t>MIII</t>
-  </si>
-  <si>
-    <t>TVMM</t>
-  </si>
-  <si>
-    <t>AAHI</t>
-  </si>
-  <si>
-    <t>IAIL</t>
-  </si>
-  <si>
-    <t>SVYA</t>
-  </si>
-  <si>
-    <t>WVAG</t>
-  </si>
-  <si>
-    <t>QPRA</t>
-  </si>
-  <si>
-    <t>LIGV</t>
-  </si>
-  <si>
-    <t>VIAV</t>
-  </si>
-  <si>
-    <t>NTRI</t>
-  </si>
-  <si>
-    <t>TDVA</t>
-  </si>
-  <si>
-    <t>RMGI</t>
-  </si>
-  <si>
-    <t>ILVP</t>
-  </si>
-  <si>
-    <t>WSGL</t>
-  </si>
-  <si>
-    <t>SQRG</t>
-  </si>
-  <si>
-    <t>GVIS</t>
-  </si>
-  <si>
-    <t>GLRT</t>
-  </si>
-  <si>
-    <t>AIAI</t>
-  </si>
-  <si>
-    <t>EPSL</t>
-  </si>
-  <si>
-    <t>QTSY</t>
-  </si>
-  <si>
-    <t>DVMS</t>
-  </si>
-  <si>
-    <t>AILL</t>
-  </si>
-  <si>
-    <t>ACVA</t>
-  </si>
-  <si>
-    <t>TKTA</t>
-  </si>
-  <si>
-    <t>IFYI</t>
-  </si>
-  <si>
-    <t>YILM</t>
-  </si>
-  <si>
-    <t>SVGL</t>
-  </si>
-  <si>
-    <t>CLLA</t>
-  </si>
-  <si>
-    <t>IFIP</t>
-  </si>
-  <si>
-    <t>KNRI</t>
-  </si>
-  <si>
-    <t>RTLL</t>
-  </si>
-  <si>
-    <t>YLMI</t>
-  </si>
-  <si>
-    <t>SLLA</t>
-  </si>
-  <si>
-    <t>VFFF</t>
-  </si>
-  <si>
-    <t>GGAG</t>
-  </si>
-  <si>
-    <t>NVFI</t>
-  </si>
-  <si>
-    <t>ASSA</t>
-  </si>
-  <si>
-    <t>NTAL</t>
-  </si>
-  <si>
-    <t>YLKA</t>
-  </si>
-  <si>
-    <t>FIIF</t>
-  </si>
-  <si>
-    <t>LLAG</t>
-  </si>
-  <si>
-    <t>STKY</t>
-  </si>
-  <si>
-    <t>NFSV</t>
-  </si>
-  <si>
-    <t>VWLA</t>
-  </si>
-  <si>
-    <t>KVIF</t>
-  </si>
-  <si>
-    <t>MYVL</t>
-  </si>
-  <si>
-    <t>IVAG</t>
-  </si>
-  <si>
-    <t>EWDL</t>
-  </si>
-  <si>
-    <t>LAVV</t>
-  </si>
-  <si>
-    <t>PLVV</t>
-  </si>
-  <si>
-    <t>AVTI</t>
-  </si>
-  <si>
-    <t>TSVV</t>
-  </si>
-  <si>
-    <t>GPLL</t>
-  </si>
-  <si>
-    <t>ALVS</t>
-  </si>
-  <si>
-    <t>SHWQ</t>
-  </si>
-  <si>
-    <t>LWTL</t>
-  </si>
-  <si>
-    <t>AYPA</t>
-  </si>
-  <si>
-    <t>KQAI</t>
-  </si>
-  <si>
-    <t>TLPA</t>
-  </si>
-  <si>
-    <t>AVVT</t>
-  </si>
-  <si>
-    <t>TCVF</t>
-  </si>
-  <si>
-    <t>RPGL</t>
-  </si>
-  <si>
-    <t>VIVA</t>
-  </si>
-  <si>
-    <t>PTWI</t>
-  </si>
-  <si>
-    <t>FVMG</t>
-  </si>
-  <si>
-    <t>KLFV</t>
-  </si>
-  <si>
-    <t>TKGF</t>
-  </si>
-  <si>
-    <t>GWTV</t>
-  </si>
-  <si>
-    <t>VVYG</t>
-  </si>
-  <si>
-    <t>EAIA</t>
-  </si>
-  <si>
-    <t>RVKI</t>
-  </si>
-  <si>
-    <t>DVGY</t>
-  </si>
-  <si>
-    <t>VVIS</t>
-  </si>
-  <si>
-    <t>ARDV</t>
-  </si>
-  <si>
-    <t>GTIS</t>
-  </si>
-  <si>
-    <t>VIYA</t>
-  </si>
-  <si>
-    <t>TTLA</t>
-  </si>
-  <si>
-    <t>IPYF</t>
-  </si>
-  <si>
-    <t>GAIA</t>
-  </si>
-  <si>
-    <t>MLTG</t>
-  </si>
-  <si>
-    <t>DLWL</t>
-  </si>
-  <si>
-    <t>IVGS</t>
-  </si>
-  <si>
-    <t>DVLL</t>
-  </si>
-  <si>
-    <t>LIRI</t>
-  </si>
-  <si>
-    <t>GGWL</t>
-  </si>
-  <si>
-    <t>LLVA</t>
-  </si>
-  <si>
-    <t>ILAV</t>
-  </si>
-  <si>
-    <t>NAIA</t>
-  </si>
-  <si>
-    <t>LWWS</t>
-  </si>
-  <si>
-    <t>VTIS</t>
-  </si>
-  <si>
-    <t>GIIT</t>
-  </si>
-  <si>
-    <t>IIFV</t>
-  </si>
-  <si>
-    <t>THYI</t>
-  </si>
-  <si>
-    <t>IFCC</t>
+    <t>LFIL</t>
+  </si>
+  <si>
+    <t>KAVS</t>
+  </si>
+  <si>
+    <t>IYGG</t>
+  </si>
+  <si>
+    <t>LLRY</t>
+  </si>
+  <si>
+    <t>GVGA</t>
+  </si>
+  <si>
+    <t>LIAA</t>
+  </si>
+  <si>
+    <t>LVPM</t>
+  </si>
+  <si>
+    <t>NMVI</t>
   </si>
 </sst>
 </file>
@@ -2214,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1038</v>
+        <v>236</v>
       </c>
       <c r="F2">
-        <v>0.8529170090386196</v>
+        <v>0.6465753424657534</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2234,16 +2228,16 @@
         <v>408</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>320</v>
+        <v>689</v>
       </c>
       <c r="F3">
-        <v>0.8060453400503779</v>
+        <v>0.7432578209277239</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2260,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="F4">
-        <v>0.8421052631578947</v>
+        <v>0.7896825396825397</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2283,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>210</v>
+        <v>1107</v>
       </c>
       <c r="F5">
-        <v>0.1721311475409836</v>
+        <v>0.9518486672398968</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2306,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="F6">
-        <v>0.5980392156862745</v>
+        <v>0.7236180904522613</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2329,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>733</v>
+        <v>387</v>
       </c>
       <c r="F7">
-        <v>0.8503480278422274</v>
+        <v>0.88558352402746</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2352,13 +2346,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="F8">
-        <v>0.5241157556270096</v>
+        <v>0.7425149700598802</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2375,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>147</v>
       </c>
       <c r="F9">
-        <v>0.9055555555555556</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2398,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>65</v>
+        <v>744</v>
       </c>
       <c r="F10">
-        <v>0.3299492385786802</v>
+        <v>0.9370277078085643</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2418,16 +2412,16 @@
         <v>416</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>480</v>
+        <v>581</v>
       </c>
       <c r="F11">
-        <v>0.768</v>
+        <v>0.8938461538461538</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2444,13 +2438,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="F12">
-        <v>0.7953667953667953</v>
+        <v>0.7904191616766467</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2467,13 +2461,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="F13">
-        <v>0.3982808022922636</v>
+        <v>0.4295774647887324</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2490,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>352</v>
+        <v>572</v>
       </c>
       <c r="F14">
-        <v>0.5374045801526718</v>
+        <v>0.5515911282545806</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2513,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>635</v>
+        <v>242</v>
       </c>
       <c r="F15">
-        <v>0.8868715083798883</v>
+        <v>0.7446153846153846</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2536,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1151</v>
+        <v>208</v>
       </c>
       <c r="F16">
-        <v>0.8799694189602446</v>
+        <v>0.8188976377952756</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2559,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>529</v>
+        <v>146</v>
       </c>
       <c r="F17">
-        <v>0.8113496932515337</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2576,19 +2570,19 @@
         <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="F18">
-        <v>0.7054794520547946</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2599,19 +2593,19 @@
         <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>375</v>
+        <v>221</v>
       </c>
       <c r="F19">
-        <v>0.7440476190476191</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2622,19 +2616,19 @@
         <v>225</v>
       </c>
       <c r="C20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1111</v>
+        <v>73</v>
       </c>
       <c r="F20">
-        <v>0.9585849870578085</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2645,19 +2639,19 @@
         <v>226</v>
       </c>
       <c r="C21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="F21">
-        <v>0.5939086294416244</v>
+        <v>0.7946127946127947</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2668,19 +2662,19 @@
         <v>227</v>
       </c>
       <c r="C22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>493</v>
       </c>
       <c r="F22">
-        <v>0.0958904109589041</v>
+        <v>0.8756660746003553</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2691,19 +2685,19 @@
         <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>650</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>0.927246790299572</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2714,19 +2708,19 @@
         <v>229</v>
       </c>
       <c r="C24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>539</v>
+        <v>346</v>
       </c>
       <c r="F24">
-        <v>0.5477642276422764</v>
+        <v>0.8826530612244898</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2737,19 +2731,19 @@
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F25">
-        <v>0.8306878306878307</v>
+        <v>0.344</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2760,19 +2754,19 @@
         <v>231</v>
       </c>
       <c r="C26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>235</v>
+        <v>1247</v>
       </c>
       <c r="F26">
-        <v>0.633423180592992</v>
+        <v>0.968167701863354</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2783,19 +2777,19 @@
         <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F27">
-        <v>0.7105263157894737</v>
+        <v>0.6877637130801688</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2806,19 +2800,19 @@
         <v>233</v>
       </c>
       <c r="C28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>651</v>
+        <v>566</v>
       </c>
       <c r="F28">
-        <v>0.9130434782608695</v>
+        <v>0.7669376693766937</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2829,19 +2823,19 @@
         <v>234</v>
       </c>
       <c r="C29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>970</v>
+        <v>111</v>
       </c>
       <c r="F29">
-        <v>0.9729187562688064</v>
+        <v>0.7207792207792207</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2852,19 +2846,19 @@
         <v>235</v>
       </c>
       <c r="C30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>685</v>
+        <v>398</v>
       </c>
       <c r="F30">
-        <v>0.7381465517241379</v>
+        <v>0.7834645669291339</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2875,19 +2869,19 @@
         <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="F31">
-        <v>0.874439461883408</v>
+        <v>0.6483516483516484</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2898,19 +2892,19 @@
         <v>237</v>
       </c>
       <c r="C32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F32">
-        <v>0.3493975903614458</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2921,19 +2915,19 @@
         <v>238</v>
       </c>
       <c r="C33" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="F33">
-        <v>0.695</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2944,19 +2938,19 @@
         <v>239</v>
       </c>
       <c r="C34" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>252</v>
+        <v>574</v>
       </c>
       <c r="F34">
-        <v>0.6461538461538462</v>
+        <v>0.9125596184419714</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2967,19 +2961,19 @@
         <v>240</v>
       </c>
       <c r="C35" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F35">
-        <v>0.0372960372960373</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2990,19 +2984,19 @@
         <v>241</v>
       </c>
       <c r="C36" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>324</v>
+        <v>178</v>
       </c>
       <c r="F36">
-        <v>0.3741339491916859</v>
+        <v>0.7447698744769874</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3013,16 +3007,16 @@
         <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>375</v>
+        <v>38</v>
       </c>
       <c r="F37">
-        <v>0.7575757575757576</v>
+        <v>0.2814814814814815</v>
       </c>
       <c r="G37">
         <v>6</v>
@@ -3036,19 +3030,19 @@
         <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>237</v>
+        <v>1330</v>
       </c>
       <c r="F38">
-        <v>0.4480151228733459</v>
+        <v>0.9808259587020649</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3059,19 +3053,19 @@
         <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1179</v>
+        <v>214</v>
       </c>
       <c r="F39">
-        <v>0.6376419686316928</v>
+        <v>0.4713656387665198</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3082,19 +3076,19 @@
         <v>245</v>
       </c>
       <c r="C40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="F40">
-        <v>0.2444444444444444</v>
+        <v>0.8614609571788413</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3105,19 +3099,19 @@
         <v>246</v>
       </c>
       <c r="C41" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>632</v>
+        <v>163</v>
       </c>
       <c r="F41">
-        <v>0.9226277372262773</v>
+        <v>0.5241157556270096</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3128,19 +3122,19 @@
         <v>247</v>
       </c>
       <c r="C42" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="F42">
-        <v>0.8771428571428571</v>
+        <v>0.3501683501683502</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3151,16 +3145,16 @@
         <v>248</v>
       </c>
       <c r="C43" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>311</v>
+        <v>697</v>
       </c>
       <c r="F43">
-        <v>0.8405405405405405</v>
+        <v>0.740701381509033</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -3174,19 +3168,19 @@
         <v>249</v>
       </c>
       <c r="C44" t="s">
-        <v>279</v>
+        <v>447</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>224</v>
+        <v>42</v>
       </c>
       <c r="F44">
-        <v>0.896</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3197,19 +3191,19 @@
         <v>250</v>
       </c>
       <c r="C45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>482</v>
+        <v>193</v>
       </c>
       <c r="F45">
-        <v>0.4315129811996419</v>
+        <v>0.8109243697478992</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3220,16 +3214,16 @@
         <v>251</v>
       </c>
       <c r="C46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="F46">
-        <v>0.8571428571428571</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -3243,19 +3237,19 @@
         <v>252</v>
       </c>
       <c r="C47" t="s">
-        <v>302</v>
+        <v>450</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>36</v>
+        <v>752</v>
       </c>
       <c r="F47">
-        <v>0.05921052631578947</v>
+        <v>0.8402234636871508</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3272,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="F48">
-        <v>0.8112449799196787</v>
+        <v>0.4350282485875706</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3295,13 +3289,13 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>695</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>0.9573002754820936</v>
+        <v>0.03435114503816794</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3315,16 +3309,16 @@
         <v>453</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>317</v>
+        <v>143</v>
       </c>
       <c r="F50">
-        <v>0.9269005847953217</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3341,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1222</v>
+        <v>500</v>
       </c>
       <c r="F51">
-        <v>0.6531266702298236</v>
+        <v>0.6605019815059445</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3364,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>626</v>
+        <v>145</v>
       </c>
       <c r="F52">
-        <v>0.7262180974477959</v>
+        <v>0.6531531531531531</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -3387,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="F53">
-        <v>0.4171270718232044</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3410,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>241</v>
+        <v>576</v>
       </c>
       <c r="F54">
-        <v>0.8892988929889298</v>
+        <v>0.5883554647599591</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3433,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>855</v>
+        <v>454</v>
       </c>
       <c r="F55">
-        <v>0.8584337349397591</v>
+        <v>0.6931297709923664</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3453,16 +3447,16 @@
         <v>459</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="F56">
-        <v>0.5793269230769231</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="G56">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3479,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>927</v>
+        <v>86</v>
       </c>
       <c r="F57">
-        <v>0.8366425992779783</v>
+        <v>0.5695364238410596</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3502,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F58">
-        <v>0.7241379310344828</v>
+        <v>0.6255924170616114</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3525,13 +3519,13 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="F59">
-        <v>0.7164179104477612</v>
+        <v>0.7226107226107226</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3548,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="F60">
-        <v>0.1263345195729537</v>
+        <v>0.8237547892720306</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3571,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>492</v>
+        <v>664</v>
       </c>
       <c r="F61">
-        <v>0.9516441005802708</v>
+        <v>0.9158620689655173</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3594,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>19</v>
+        <v>1109</v>
       </c>
       <c r="F62">
-        <v>0.03350970017636684</v>
+        <v>0.8610248447204969</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3617,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>745</v>
+        <v>85</v>
       </c>
       <c r="F63">
-        <v>0.6628113879003559</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3640,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1273</v>
+        <v>228</v>
       </c>
       <c r="F64">
-        <v>0.6612987012987013</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3663,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>460</v>
+        <v>198</v>
       </c>
       <c r="F65">
-        <v>0.9181636726546906</v>
+        <v>0.72</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3686,13 +3680,13 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>161</v>
+        <v>700</v>
       </c>
       <c r="F66">
-        <v>0.7219730941704036</v>
+        <v>0.9472259810554804</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3703,19 +3697,19 @@
         <v>272</v>
       </c>
       <c r="C67" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="F67">
-        <v>0.3973509933774834</v>
+        <v>0.7099697885196374</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3726,19 +3720,19 @@
         <v>273</v>
       </c>
       <c r="C68" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F68">
-        <v>0.4318181818181818</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3749,19 +3743,19 @@
         <v>274</v>
       </c>
       <c r="C69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>319</v>
+        <v>867</v>
       </c>
       <c r="F69">
-        <v>0.6550308008213552</v>
+        <v>0.5388440024860162</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3772,19 +3766,19 @@
         <v>275</v>
       </c>
       <c r="C70" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>254</v>
+        <v>1065</v>
       </c>
       <c r="F70">
-        <v>0.7559523809523809</v>
+        <v>0.9252823631624674</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3795,19 +3789,19 @@
         <v>276</v>
       </c>
       <c r="C71" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1598</v>
+        <v>490</v>
       </c>
       <c r="F71">
-        <v>0.793840039741679</v>
+        <v>0.9297912713472486</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3818,19 +3812,19 @@
         <v>277</v>
       </c>
       <c r="C72" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>694</v>
+        <v>256</v>
       </c>
       <c r="F72">
-        <v>0.7694013303769401</v>
+        <v>0.7876923076923077</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3841,19 +3835,19 @@
         <v>278</v>
       </c>
       <c r="C73" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="F73">
-        <v>0.7233009708737864</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3864,19 +3858,19 @@
         <v>279</v>
       </c>
       <c r="C74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>542</v>
+        <v>222</v>
       </c>
       <c r="F74">
-        <v>0.9328743545611016</v>
+        <v>0.8473282442748091</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3887,16 +3881,16 @@
         <v>280</v>
       </c>
       <c r="C75" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>1106</v>
+        <v>1806</v>
       </c>
       <c r="F75">
-        <v>0.9592367736339983</v>
+        <v>0.9601275917065391</v>
       </c>
       <c r="G75">
         <v>6</v>
@@ -3910,19 +3904,19 @@
         <v>281</v>
       </c>
       <c r="C76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>656</v>
+        <v>168</v>
       </c>
       <c r="F76">
-        <v>0.5222929936305732</v>
+        <v>0.5508196721311476</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3933,19 +3927,19 @@
         <v>282</v>
       </c>
       <c r="C77" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>666</v>
+        <v>30</v>
       </c>
       <c r="F77">
-        <v>0.9541547277936963</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3956,19 +3950,19 @@
         <v>283</v>
       </c>
       <c r="C78" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="F78">
-        <v>0.5475285171102662</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3979,19 +3973,19 @@
         <v>284</v>
       </c>
       <c r="C79" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>4210</v>
+        <v>138</v>
       </c>
       <c r="F79">
-        <v>0.9922224840914448</v>
+        <v>0.7885714285714286</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4002,19 +3996,19 @@
         <v>285</v>
       </c>
       <c r="C80" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="F80">
-        <v>0.8494208494208494</v>
+        <v>0.5301645338208409</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4025,19 +4019,19 @@
         <v>286</v>
       </c>
       <c r="C81" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="F81">
-        <v>0.7255260750228728</v>
+        <v>0.6596604688763137</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4048,19 +4042,19 @@
         <v>287</v>
       </c>
       <c r="C82" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>517</v>
+        <v>151</v>
       </c>
       <c r="F82">
-        <v>0.9574074074074074</v>
+        <v>0.6138211382113821</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4071,19 +4065,19 @@
         <v>288</v>
       </c>
       <c r="C83" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="F83">
-        <v>0.7361477572559367</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4094,19 +4088,19 @@
         <v>289</v>
       </c>
       <c r="C84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>350</v>
+        <v>4</v>
       </c>
       <c r="F84">
-        <v>0.5343511450381679</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="G84">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4117,19 +4111,19 @@
         <v>290</v>
       </c>
       <c r="C85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>82</v>
+        <v>566</v>
       </c>
       <c r="F85">
-        <v>0.2887323943661972</v>
+        <v>0.9248366013071896</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4140,19 +4134,19 @@
         <v>291</v>
       </c>
       <c r="C86" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="F86">
-        <v>0.7266009852216748</v>
+        <v>0.7137809187279152</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4163,19 +4157,19 @@
         <v>292</v>
       </c>
       <c r="C87" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>2651</v>
+        <v>691</v>
       </c>
       <c r="F87">
-        <v>0.9318101933216169</v>
+        <v>0.9517906336088154</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4186,16 +4180,16 @@
         <v>293</v>
       </c>
       <c r="C88" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>815</v>
+        <v>686</v>
       </c>
       <c r="F88">
-        <v>0.7897286821705426</v>
+        <v>0.8618090452261307</v>
       </c>
       <c r="G88">
         <v>6</v>
@@ -4209,19 +4203,19 @@
         <v>294</v>
       </c>
       <c r="C89" t="s">
-        <v>492</v>
+        <v>430</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>452</v>
+        <v>539</v>
       </c>
       <c r="F89">
-        <v>0.8776699029126214</v>
+        <v>0.5516888433981576</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4232,19 +4226,19 @@
         <v>295</v>
       </c>
       <c r="C90" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="F90">
-        <v>0.3889845094664372</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4255,19 +4249,19 @@
         <v>296</v>
       </c>
       <c r="C91" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="F91">
-        <v>0.8103448275862069</v>
+        <v>0.8722513089005236</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4278,19 +4272,19 @@
         <v>297</v>
       </c>
       <c r="C92" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>1580</v>
+        <v>70</v>
       </c>
       <c r="F92">
-        <v>0.9294117647058824</v>
+        <v>0.4</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4301,19 +4295,19 @@
         <v>298</v>
       </c>
       <c r="C93" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>675</v>
+        <v>15</v>
       </c>
       <c r="F93">
-        <v>0.8162031438935913</v>
+        <v>0.04043126684636118</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4324,19 +4318,19 @@
         <v>299</v>
       </c>
       <c r="C94" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>424</v>
+        <v>54</v>
       </c>
       <c r="F94">
-        <v>0.828125</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4347,19 +4341,19 @@
         <v>300</v>
       </c>
       <c r="C95" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>28</v>
+        <v>415</v>
       </c>
       <c r="F95">
-        <v>0.05566600397614314</v>
+        <v>0.6514913657770801</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4370,19 +4364,19 @@
         <v>301</v>
       </c>
       <c r="C96" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>744</v>
+        <v>349</v>
       </c>
       <c r="F96">
-        <v>0.5145228215767634</v>
+        <v>0.6843137254901961</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4393,19 +4387,19 @@
         <v>302</v>
       </c>
       <c r="C97" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>43</v>
+        <v>900</v>
       </c>
       <c r="F97">
-        <v>0.07037643207855974</v>
+        <v>0.9544008483563097</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4416,19 +4410,19 @@
         <v>303</v>
       </c>
       <c r="C98" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>1113</v>
+        <v>765</v>
       </c>
       <c r="F98">
-        <v>0.9537275064267352</v>
+        <v>0.5641592920353983</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4439,19 +4433,19 @@
         <v>304</v>
       </c>
       <c r="C99" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>63</v>
+        <v>656</v>
       </c>
       <c r="F99">
-        <v>0.4405594405594406</v>
+        <v>0.9200561009817672</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4462,19 +4456,19 @@
         <v>305</v>
       </c>
       <c r="C100" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="F100">
-        <v>0.7247706422018348</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4485,19 +4479,19 @@
         <v>306</v>
       </c>
       <c r="C101" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>796</v>
+        <v>471</v>
       </c>
       <c r="F101">
-        <v>0.7282708142726441</v>
+        <v>0.7708674304418985</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4508,19 +4502,19 @@
         <v>307</v>
       </c>
       <c r="C102" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>179</v>
+        <v>1061</v>
       </c>
       <c r="F102">
-        <v>0.7489539748953975</v>
+        <v>0.854955680902498</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4531,19 +4525,19 @@
         <v>308</v>
       </c>
       <c r="C103" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>529</v>
+        <v>821</v>
       </c>
       <c r="F103">
-        <v>0.7357440890125174</v>
+        <v>0.7955426356589147</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4554,19 +4548,19 @@
         <v>309</v>
       </c>
       <c r="C104" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1079</v>
+        <v>388</v>
       </c>
       <c r="F104">
-        <v>0.6328445747800586</v>
+        <v>0.8778280542986425</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4577,19 +4571,19 @@
         <v>310</v>
       </c>
       <c r="C105" t="s">
-        <v>306</v>
+        <v>506</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>792</v>
+        <v>359</v>
       </c>
       <c r="F105">
-        <v>0.7246111619396157</v>
+        <v>0.7924944812362031</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4600,19 +4594,19 @@
         <v>311</v>
       </c>
       <c r="C106" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>923</v>
+        <v>150</v>
       </c>
       <c r="F106">
-        <v>0.9285714285714286</v>
+        <v>0.3667481662591687</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4623,19 +4617,19 @@
         <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>623</v>
+        <v>447</v>
       </c>
       <c r="F107">
-        <v>0.7777777777777778</v>
+        <v>0.8514285714285714</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4646,19 +4640,19 @@
         <v>313</v>
       </c>
       <c r="C108" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="F108">
-        <v>0.4556803995006242</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4669,19 +4663,19 @@
         <v>314</v>
       </c>
       <c r="C109" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>508</v>
+        <v>238</v>
       </c>
       <c r="F109">
-        <v>0.9407407407407408</v>
+        <v>0.7460815047021944</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4692,19 +4686,19 @@
         <v>315</v>
       </c>
       <c r="C110" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>221</v>
+        <v>368</v>
       </c>
       <c r="F110">
-        <v>0.6616766467065869</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4715,19 +4709,19 @@
         <v>316</v>
       </c>
       <c r="C111" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F111">
-        <v>0.825938566552901</v>
+        <v>0.7300613496932515</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4738,19 +4732,19 @@
         <v>317</v>
       </c>
       <c r="C112" t="s">
-        <v>270</v>
+        <v>513</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="F112">
-        <v>0.9101796407185628</v>
+        <v>0.5497967479674797</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4767,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>643</v>
+        <v>29</v>
       </c>
       <c r="F113">
-        <v>0.4802091112770724</v>
+        <v>0.2843137254901961</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4784,19 +4778,19 @@
         <v>319</v>
       </c>
       <c r="C114" t="s">
-        <v>435</v>
+        <v>515</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>689</v>
+        <v>341</v>
       </c>
       <c r="F114">
-        <v>0.7298728813559322</v>
+        <v>0.7714932126696833</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4807,19 +4801,19 @@
         <v>320</v>
       </c>
       <c r="C115" t="s">
-        <v>211</v>
+        <v>516</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F115">
-        <v>0.8058608058608059</v>
+        <v>0.8464566929133859</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4830,19 +4824,19 @@
         <v>321</v>
       </c>
       <c r="C116" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>397</v>
+        <v>599</v>
       </c>
       <c r="F116">
-        <v>0.464327485380117</v>
+        <v>0.7669654289372599</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4853,19 +4847,19 @@
         <v>322</v>
       </c>
       <c r="C117" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>203</v>
+        <v>357</v>
       </c>
       <c r="F117">
-        <v>0.7898832684824902</v>
+        <v>0.9015151515151515</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4876,19 +4870,19 @@
         <v>323</v>
       </c>
       <c r="C118" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>464</v>
+        <v>325</v>
       </c>
       <c r="F118">
-        <v>0.9488752556237219</v>
+        <v>0.8376288659793815</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4899,19 +4893,19 @@
         <v>324</v>
       </c>
       <c r="C119" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>407</v>
+        <v>272</v>
       </c>
       <c r="F119">
-        <v>0.4316012725344645</v>
+        <v>0.5220729366602687</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4922,16 +4916,16 @@
         <v>325</v>
       </c>
       <c r="C120" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="F120">
-        <v>0.5882352941176471</v>
+        <v>0.3832116788321168</v>
       </c>
       <c r="G120">
         <v>6</v>
@@ -4945,19 +4939,19 @@
         <v>326</v>
       </c>
       <c r="C121" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>469</v>
+        <v>374</v>
       </c>
       <c r="F121">
-        <v>0.7739273927392739</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4968,19 +4962,19 @@
         <v>327</v>
       </c>
       <c r="C122" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="F122">
-        <v>0.6146341463414634</v>
+        <v>0.7459807073954984</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4991,19 +4985,19 @@
         <v>328</v>
       </c>
       <c r="C123" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="F123">
-        <v>0.1764705882352941</v>
+        <v>0.7506493506493507</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5014,19 +5008,19 @@
         <v>329</v>
       </c>
       <c r="C124" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>678</v>
+        <v>492</v>
       </c>
       <c r="F124">
-        <v>0.8100358422939068</v>
+        <v>0.5727590221187427</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5037,19 +5031,19 @@
         <v>330</v>
       </c>
       <c r="C125" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>304</v>
+        <v>718</v>
       </c>
       <c r="F125">
-        <v>0.793733681462141</v>
+        <v>0.9111675126903553</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5060,19 +5054,19 @@
         <v>331</v>
       </c>
       <c r="C126" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="E126">
-        <v>353</v>
+        <v>231</v>
       </c>
       <c r="F126">
-        <v>0.8404761904761905</v>
+        <v>0.6875</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5083,19 +5077,19 @@
         <v>332</v>
       </c>
       <c r="C127" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>113</v>
+        <v>533</v>
       </c>
       <c r="F127">
-        <v>0.5</v>
+        <v>0.846031746031746</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5106,19 +5100,19 @@
         <v>333</v>
       </c>
       <c r="C128" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128">
-        <v>848</v>
+        <v>641</v>
       </c>
       <c r="F128">
-        <v>0.9318681318681319</v>
+        <v>0.7621878715814506</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5129,19 +5123,19 @@
         <v>334</v>
       </c>
       <c r="C129" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129">
-        <v>609</v>
+        <v>319</v>
       </c>
       <c r="F129">
-        <v>0.6541353383458647</v>
+        <v>0.9273255813953488</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5152,19 +5146,19 @@
         <v>335</v>
       </c>
       <c r="C130" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1766</v>
+        <v>3114</v>
       </c>
       <c r="F130">
-        <v>0.9408630793819925</v>
+        <v>0.9826443673082992</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5175,19 +5169,19 @@
         <v>336</v>
       </c>
       <c r="C131" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="F131">
-        <v>0.8542372881355932</v>
+        <v>0.05540166204986149</v>
       </c>
       <c r="G131">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5198,19 +5192,19 @@
         <v>337</v>
       </c>
       <c r="C132" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>46</v>
+        <v>465</v>
       </c>
       <c r="F132">
-        <v>0.3565891472868217</v>
+        <v>0.666189111747851</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5221,19 +5215,19 @@
         <v>338</v>
       </c>
       <c r="C133" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>833</v>
+        <v>752</v>
       </c>
       <c r="F133">
-        <v>0.7593436645396536</v>
+        <v>0.6744394618834081</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5244,19 +5238,19 @@
         <v>339</v>
       </c>
       <c r="C134" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <v>320</v>
+        <v>13</v>
       </c>
       <c r="F134">
-        <v>0.7766990291262136</v>
+        <v>0.01841359773371105</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5267,19 +5261,19 @@
         <v>340</v>
       </c>
       <c r="C135" t="s">
-        <v>534</v>
+        <v>481</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>961</v>
+        <v>620</v>
       </c>
       <c r="F135">
-        <v>0.9384765625</v>
+        <v>0.8908045977011494</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5290,19 +5284,19 @@
         <v>341</v>
       </c>
       <c r="C136" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>141</v>
+        <v>310</v>
       </c>
       <c r="F136">
-        <v>0.6238938053097345</v>
+        <v>0.7888040712468194</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5313,19 +5307,19 @@
         <v>342</v>
       </c>
       <c r="C137" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="F137">
-        <v>0.1846846846846847</v>
+        <v>0.8542372881355932</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5336,19 +5330,19 @@
         <v>343</v>
       </c>
       <c r="C138" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>106</v>
+        <v>1391</v>
       </c>
       <c r="F138">
-        <v>0.6838709677419355</v>
+        <v>0.9553571428571429</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5359,19 +5353,19 @@
         <v>344</v>
       </c>
       <c r="C139" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="F139">
-        <v>0.3725490196078431</v>
+        <v>0.74609375</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5382,19 +5376,19 @@
         <v>345</v>
       </c>
       <c r="C140" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F140">
-        <v>0.8559218559218559</v>
+        <v>0.8628930817610063</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5405,19 +5399,19 @@
         <v>346</v>
       </c>
       <c r="C141" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>351</v>
+        <v>740</v>
       </c>
       <c r="F141">
-        <v>0.7580993520518359</v>
+        <v>0.7558733401430031</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5428,19 +5422,19 @@
         <v>347</v>
       </c>
       <c r="C142" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142">
-        <v>373</v>
+        <v>682</v>
       </c>
       <c r="F142">
-        <v>0.7270955165692008</v>
+        <v>0.8961892247043364</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5451,19 +5445,19 @@
         <v>348</v>
       </c>
       <c r="C143" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>479</v>
+        <v>208</v>
       </c>
       <c r="F143">
-        <v>0.9485148514851485</v>
+        <v>0.4759725400457666</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5474,19 +5468,19 @@
         <v>349</v>
       </c>
       <c r="C144" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>575</v>
+        <v>320</v>
       </c>
       <c r="F144">
-        <v>0.7090012330456227</v>
+        <v>0.8060453400503779</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5497,19 +5491,19 @@
         <v>350</v>
       </c>
       <c r="C145" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>514</v>
+        <v>188</v>
       </c>
       <c r="F145">
-        <v>0.921146953405018</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5520,19 +5514,19 @@
         <v>351</v>
       </c>
       <c r="C146" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>687</v>
+        <v>202</v>
       </c>
       <c r="F146">
-        <v>0.893368010403121</v>
+        <v>0.8782608695652174</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5543,19 +5537,19 @@
         <v>352</v>
       </c>
       <c r="C147" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F147">
-        <v>0.06578947368421052</v>
+        <v>0.08224299065420561</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5566,19 +5560,19 @@
         <v>353</v>
       </c>
       <c r="C148" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>687</v>
+        <v>247</v>
       </c>
       <c r="F148">
-        <v>0.8398533007334963</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5589,19 +5583,19 @@
         <v>354</v>
       </c>
       <c r="C149" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>509</v>
+        <v>2139</v>
       </c>
       <c r="F149">
-        <v>0.9514018691588785</v>
+        <v>0.9661246612466124</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5612,19 +5606,19 @@
         <v>355</v>
       </c>
       <c r="C150" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>666</v>
+        <v>738</v>
       </c>
       <c r="F150">
-        <v>0.7985611510791367</v>
+        <v>0.510726643598616</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5635,19 +5629,19 @@
         <v>356</v>
       </c>
       <c r="C151" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>253</v>
+        <v>710</v>
       </c>
       <c r="F151">
-        <v>0.4633699633699634</v>
+        <v>0.7810781078107811</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5658,19 +5652,19 @@
         <v>357</v>
       </c>
       <c r="C152" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>163</v>
+        <v>434</v>
       </c>
       <c r="F152">
-        <v>0.7477064220183486</v>
+        <v>0.4044734389561976</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5681,19 +5675,19 @@
         <v>358</v>
       </c>
       <c r="C153" t="s">
-        <v>552</v>
+        <v>387</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="F153">
-        <v>0.8497267759562842</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5710,13 +5704,13 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>742</v>
+        <v>120</v>
       </c>
       <c r="F154">
-        <v>0.9345088161209067</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5733,13 +5727,13 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>725</v>
+        <v>593</v>
       </c>
       <c r="F155">
-        <v>0.9085213032581454</v>
+        <v>0.967373572593801</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5753,16 +5747,16 @@
         <v>555</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>163</v>
+        <v>997</v>
       </c>
       <c r="F156">
-        <v>0.4591549295774648</v>
+        <v>0.9549808429118773</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5779,13 +5773,13 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="F157">
-        <v>0.7903225806451613</v>
+        <v>0.09369676320272573</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5802,13 +5796,13 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>385</v>
+        <v>707</v>
       </c>
       <c r="F158">
-        <v>0.9080188679245284</v>
+        <v>0.9464524765729585</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5825,13 +5819,13 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>555</v>
+        <v>144</v>
       </c>
       <c r="F159">
-        <v>0.8980582524271845</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5845,16 +5839,16 @@
         <v>559</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>589</v>
+        <v>361</v>
       </c>
       <c r="F160">
-        <v>0.7512755102040817</v>
+        <v>0.9450261780104712</v>
       </c>
       <c r="G160">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5871,13 +5865,13 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>305</v>
+        <v>1173</v>
       </c>
       <c r="F161">
-        <v>0.7963446475195822</v>
+        <v>0.9791318864774624</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5891,16 +5885,16 @@
         <v>561</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>24</v>
+        <v>1078</v>
       </c>
       <c r="F162">
-        <v>0.04232804232804233</v>
+        <v>0.632258064516129</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5917,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>710</v>
+        <v>230</v>
       </c>
       <c r="F163">
-        <v>0.9149484536082474</v>
+        <v>0.7395498392282959</v>
       </c>
       <c r="G163">
         <v>6</v>
@@ -5940,13 +5934,13 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="F164">
-        <v>0.60625</v>
+        <v>0.6472303206997084</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5963,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>1235</v>
+        <v>321</v>
       </c>
       <c r="F165">
-        <v>0.6520591341077085</v>
+        <v>0.8403141361256544</v>
       </c>
       <c r="G165">
         <v>6</v>
@@ -5986,13 +5980,13 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="F166">
-        <v>0.7027863777089783</v>
+        <v>0.5751633986928104</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6003,19 +5997,19 @@
         <v>372</v>
       </c>
       <c r="C167" t="s">
-        <v>424</v>
+        <v>566</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>944</v>
+        <v>483</v>
       </c>
       <c r="F167">
-        <v>0.7952822240943556</v>
+        <v>0.8158783783783784</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6026,19 +6020,19 @@
         <v>373</v>
       </c>
       <c r="C168" t="s">
-        <v>566</v>
+        <v>418</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>666</v>
+        <v>164</v>
       </c>
       <c r="F168">
-        <v>0.6206896551724138</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -6055,13 +6049,13 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>628</v>
+        <v>338</v>
       </c>
       <c r="F169">
-        <v>0.8807854137447405</v>
+        <v>0.8848167539267016</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6078,13 +6072,13 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>592</v>
+        <v>706</v>
       </c>
       <c r="F170">
-        <v>0.7946308724832215</v>
+        <v>0.9204693611473272</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6101,13 +6095,13 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>119</v>
+        <v>583</v>
       </c>
       <c r="F171">
-        <v>0.536036036036036</v>
+        <v>0.8928024502297091</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6121,13 +6115,13 @@
         <v>570</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="F172">
-        <v>0.2911392405063291</v>
+        <v>0.7788461538461539</v>
       </c>
       <c r="G172">
         <v>6</v>
@@ -6141,19 +6135,19 @@
         <v>378</v>
       </c>
       <c r="C173" t="s">
-        <v>571</v>
+        <v>472</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>74</v>
+        <v>1065</v>
       </c>
       <c r="F173">
-        <v>0.1170886075949367</v>
+        <v>0.9301310043668122</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6164,19 +6158,19 @@
         <v>379</v>
       </c>
       <c r="C174" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>235</v>
+        <v>679</v>
       </c>
       <c r="F174">
-        <v>0.7704918032786885</v>
+        <v>0.8102625298329356</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6187,19 +6181,19 @@
         <v>380</v>
       </c>
       <c r="C175" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175">
-        <v>390</v>
+        <v>194</v>
       </c>
       <c r="F175">
-        <v>0.8245243128964059</v>
+        <v>0.8117154811715481</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6210,19 +6204,19 @@
         <v>381</v>
       </c>
       <c r="C176" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>15</v>
+        <v>694</v>
       </c>
       <c r="F176">
-        <v>0.1578947368421053</v>
+        <v>0.90956749672346</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6233,16 +6227,16 @@
         <v>382</v>
       </c>
       <c r="C177" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>406</v>
+        <v>2304</v>
       </c>
       <c r="F177">
-        <v>0.8962472406181016</v>
+        <v>0.9249297470895222</v>
       </c>
       <c r="G177">
         <v>6</v>
@@ -6256,19 +6250,19 @@
         <v>383</v>
       </c>
       <c r="C178" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>100</v>
+        <v>588</v>
       </c>
       <c r="F178">
-        <v>0.6493506493506493</v>
+        <v>0.75</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6279,19 +6273,19 @@
         <v>384</v>
       </c>
       <c r="C179" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>10</v>
+        <v>890</v>
       </c>
       <c r="F179">
-        <v>0.02958579881656805</v>
+        <v>0.935856992639327</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6302,19 +6296,19 @@
         <v>385</v>
       </c>
       <c r="C180" t="s">
-        <v>578</v>
+        <v>523</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="F180">
-        <v>0.8525641025641025</v>
+        <v>0.4907407407407408</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6325,19 +6319,19 @@
         <v>386</v>
       </c>
       <c r="C181" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>4</v>
+        <v>965</v>
       </c>
       <c r="F181">
-        <v>0.0130718954248366</v>
+        <v>0.8926919518963923</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6348,19 +6342,19 @@
         <v>387</v>
       </c>
       <c r="C182" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>113</v>
+        <v>595</v>
       </c>
       <c r="F182">
-        <v>0.6208791208791209</v>
+        <v>0.9001512859304085</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6371,19 +6365,19 @@
         <v>388</v>
       </c>
       <c r="C183" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="F183">
-        <v>0.8934010152284264</v>
+        <v>0.6898550724637681</v>
       </c>
       <c r="G183">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6394,19 +6388,19 @@
         <v>389</v>
       </c>
       <c r="C184" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="E184">
-        <v>401</v>
+        <v>916</v>
       </c>
       <c r="F184">
-        <v>0.7681992337164751</v>
+        <v>0.8350045578851413</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6417,19 +6411,19 @@
         <v>390</v>
       </c>
       <c r="C185" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D185">
         <v>0</v>
       </c>
       <c r="E185">
-        <v>1076</v>
+        <v>203</v>
       </c>
       <c r="F185">
-        <v>0.9590017825311943</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6440,19 +6434,19 @@
         <v>391</v>
       </c>
       <c r="C186" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D186">
         <v>0</v>
       </c>
       <c r="E186">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="F186">
-        <v>0.8136882129277566</v>
+        <v>0.4916387959866221</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6463,19 +6457,19 @@
         <v>392</v>
       </c>
       <c r="C187" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="F187">
-        <v>0.4021164021164021</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6486,19 +6480,19 @@
         <v>393</v>
       </c>
       <c r="C188" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>46</v>
+        <v>653</v>
       </c>
       <c r="F188">
-        <v>0.7076923076923077</v>
+        <v>0.6683725690890481</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6509,19 +6503,19 @@
         <v>394</v>
       </c>
       <c r="C189" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>101</v>
+        <v>4049</v>
       </c>
       <c r="F189">
-        <v>0.4243697478991597</v>
+        <v>0.9310186249712578</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6532,19 +6526,19 @@
         <v>395</v>
       </c>
       <c r="C190" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="F190">
-        <v>0.03970223325062035</v>
+        <v>0.8315789473684211</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6555,19 +6549,19 @@
         <v>396</v>
       </c>
       <c r="C191" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="F191">
-        <v>0.7876923076923077</v>
+        <v>0.4262990455991517</v>
       </c>
       <c r="G191">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6578,19 +6572,19 @@
         <v>397</v>
       </c>
       <c r="C192" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>285</v>
+        <v>160</v>
       </c>
       <c r="F192">
-        <v>0.5711422845691383</v>
+        <v>0.6986899563318777</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6601,16 +6595,16 @@
         <v>398</v>
       </c>
       <c r="C193" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>1647</v>
+        <v>320</v>
       </c>
       <c r="F193">
-        <v>0.7105263157894737</v>
+        <v>0.3695150115473441</v>
       </c>
       <c r="G193">
         <v>6</v>
@@ -6624,19 +6618,19 @@
         <v>399</v>
       </c>
       <c r="C194" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>762</v>
+        <v>643</v>
       </c>
       <c r="F194">
-        <v>0.6695957820738138</v>
+        <v>0.7485448195576252</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6647,19 +6641,19 @@
         <v>400</v>
       </c>
       <c r="C195" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="F195">
-        <v>0.454954954954955</v>
+        <v>0.8885630498533724</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6670,16 +6664,16 @@
         <v>401</v>
       </c>
       <c r="C196" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="F196">
-        <v>0.8634361233480177</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="G196">
         <v>6</v>
@@ -6693,19 +6687,19 @@
         <v>402</v>
       </c>
       <c r="C197" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>1597</v>
+        <v>21</v>
       </c>
       <c r="F197">
-        <v>0.7933432687531048</v>
+        <v>0.2470588235294118</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6716,19 +6710,19 @@
         <v>403</v>
       </c>
       <c r="C198" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>246</v>
+        <v>2479</v>
       </c>
       <c r="F198">
-        <v>0.4776699029126213</v>
+        <v>0.964591439688716</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6739,19 +6733,19 @@
         <v>404</v>
       </c>
       <c r="C199" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>482</v>
+        <v>321</v>
       </c>
       <c r="F199">
-        <v>0.9450980392156862</v>
+        <v>0.8582887700534759</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6762,16 +6756,16 @@
         <v>405</v>
       </c>
       <c r="C200" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D200">
         <v>0</v>
       </c>
       <c r="E200">
-        <v>395</v>
+        <v>251</v>
       </c>
       <c r="F200">
-        <v>0.4817073170731707</v>
+        <v>0.6354430379746835</v>
       </c>
       <c r="G200">
         <v>6</v>
@@ -6785,19 +6779,19 @@
         <v>406</v>
       </c>
       <c r="C201" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="E201">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="F201">
-        <v>0.9181034482758621</v>
+        <v>0.8487394957983193</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
